--- a/tests/Feature/config/cash_tenpercent.xlsx
+++ b/tests/Feature/config/cash_tenpercent.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>private</t>
   </si>
@@ -106,16 +106,13 @@
     <t>Markedsverdi</t>
   </si>
   <si>
-    <t>% Økning</t>
-  </si>
-  <si>
     <t>Markedsverdi fratrukket lån</t>
   </si>
   <si>
     <t>Anskaffelsesverdi</t>
   </si>
   <si>
-    <t>Betalt (inkl renter)</t>
+    <t>Finans kostnader)</t>
   </si>
   <si>
     <t>Skattbar</t>
@@ -136,13 +133,10 @@
     <t>Rest evne</t>
   </si>
   <si>
-    <t>FIRE sparing</t>
+    <t>Sparing</t>
   </si>
   <si>
-    <t>FIRE cashflow</t>
-  </si>
-  <si>
-    <t>FIRE sparerate</t>
+    <t>Sparerate</t>
   </si>
   <si>
     <t>Description</t>
@@ -154,16 +148,118 @@
     <t>cash</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 0, decimal: 1Using previous amount: 0 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: </t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 1Kontanter p.t. Asset rule 0original er satt til en variabel: changerates.cash = 10% = 1.1Using previous amount: 0 no transferResource &amp;&amp; transferRule
-</t>
+    <t>Kontanter p.t. Asset rule: Using current amount: 100000 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 0 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 100000 * 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 110000 * 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 121000 * 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 133100 * 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 146410 * 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 161051 * 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 177156 * 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 194872 * 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 214359 * 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 235795 * 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 259375 * 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 285313 * 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 313844 * 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 345228 * 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 379751 * 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 417726 * 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 459499 * 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 505449 * 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 555994 * 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 611593 * 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 672752 * 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 740027 * 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 814030 * 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 895433 * 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 984976 * 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 1083474 * 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 1191821 * 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 1311003 * 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 1442103 * 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 1586313 * 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 1744944 * 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 1919438 * 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 2111382 * 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 2322520 * 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 2554772 * 1</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -561,7 +657,7 @@
   <dimension ref="A1:AG80"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A72" sqref="A72:AD72"/>
+      <selection activeCell="A72" sqref="A72:AF72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -582,16 +678,20 @@
     <col min="14" max="14" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="15.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="24.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="27" max="27" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="28" max="28" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="29" max="29" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="30" max="30" width="9.283" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -646,7 +746,7 @@
       <c r="Z4" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -700,22 +800,22 @@
         <v>28</v>
       </c>
       <c r="Q5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>19</v>
@@ -727,28 +827,28 @@
         <v>7</v>
       </c>
       <c r="Z5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF5" t="s">
         <v>39</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AG5" t="s">
         <v>40</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -759,16 +859,20 @@
         <v>16</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="1">
         <v>0</v>
@@ -779,15 +883,23 @@
       <c r="M6" s="1">
         <v>0</v>
       </c>
-      <c r="N6" s="1"/>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q6" s="2"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
+      <c r="R6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
       <c r="U6" s="6">
         <v>0</v>
       </c>
@@ -809,7 +921,7 @@
       <c r="AC6" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6"/>
@@ -823,16 +935,20 @@
         <v>17</v>
       </c>
       <c r="C7" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="1">
         <v>0</v>
@@ -843,15 +959,23 @@
       <c r="M7" s="1">
         <v>0</v>
       </c>
-      <c r="N7" s="1"/>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q7" s="2"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
+      <c r="R7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
       <c r="U7" s="6">
         <v>0</v>
       </c>
@@ -873,7 +997,7 @@
       <c r="AC7" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AD7">
         <v>0</v>
       </c>
       <c r="AE7"/>
@@ -887,16 +1011,20 @@
         <v>18</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="1">
         <v>0</v>
@@ -907,15 +1035,23 @@
       <c r="M8" s="1">
         <v>0</v>
       </c>
-      <c r="N8" s="1"/>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q8" s="2"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
+      <c r="R8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
       <c r="U8" s="6">
         <v>0</v>
       </c>
@@ -937,7 +1073,7 @@
       <c r="AC8" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AD8">
         <v>0</v>
       </c>
       <c r="AE8"/>
@@ -951,16 +1087,20 @@
         <v>19</v>
       </c>
       <c r="C9" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="1">
         <v>0</v>
@@ -971,15 +1111,23 @@
       <c r="M9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="1"/>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q9" s="2"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
+      <c r="R9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
       <c r="U9" s="6">
         <v>0</v>
       </c>
@@ -1001,7 +1149,7 @@
       <c r="AC9" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AD9">
         <v>0</v>
       </c>
       <c r="AE9"/>
@@ -1015,16 +1163,20 @@
         <v>20</v>
       </c>
       <c r="C10" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="1">
         <v>0</v>
@@ -1035,15 +1187,23 @@
       <c r="M10" s="1">
         <v>0</v>
       </c>
-      <c r="N10" s="1"/>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q10" s="2"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
+      <c r="R10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
       <c r="U10" s="6">
         <v>0</v>
       </c>
@@ -1065,7 +1225,7 @@
       <c r="AC10" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AD10">
         <v>0</v>
       </c>
       <c r="AE10"/>
@@ -1079,16 +1239,20 @@
         <v>21</v>
       </c>
       <c r="C11" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="1">
         <v>0</v>
@@ -1099,15 +1263,23 @@
       <c r="M11" s="1">
         <v>0</v>
       </c>
-      <c r="N11" s="1"/>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q11" s="2"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
+      <c r="R11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
       <c r="U11" s="6">
         <v>0</v>
       </c>
@@ -1129,7 +1301,7 @@
       <c r="AC11" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11"/>
@@ -1143,16 +1315,20 @@
         <v>22</v>
       </c>
       <c r="C12" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="1">
         <v>0</v>
@@ -1163,15 +1339,23 @@
       <c r="M12" s="1">
         <v>0</v>
       </c>
-      <c r="N12" s="1"/>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q12" s="2"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
+      <c r="R12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
       <c r="U12" s="6">
         <v>0</v>
       </c>
@@ -1193,7 +1377,7 @@
       <c r="AC12" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AD12">
         <v>0</v>
       </c>
       <c r="AE12"/>
@@ -1207,16 +1391,20 @@
         <v>23</v>
       </c>
       <c r="C13" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="1">
         <v>0</v>
@@ -1227,15 +1415,23 @@
       <c r="M13" s="1">
         <v>0</v>
       </c>
-      <c r="N13" s="1"/>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q13" s="2"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
+      <c r="R13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
       <c r="U13" s="6">
         <v>0</v>
       </c>
@@ -1257,7 +1453,7 @@
       <c r="AC13" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD13" s="2">
+      <c r="AD13">
         <v>0</v>
       </c>
       <c r="AE13"/>
@@ -1271,16 +1467,20 @@
         <v>24</v>
       </c>
       <c r="C14" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="1">
         <v>0</v>
@@ -1291,15 +1491,23 @@
       <c r="M14" s="1">
         <v>0</v>
       </c>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q14" s="2"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
+      <c r="R14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
       <c r="U14" s="6">
         <v>0</v>
       </c>
@@ -1321,7 +1529,7 @@
       <c r="AC14" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD14" s="2">
+      <c r="AD14">
         <v>0</v>
       </c>
       <c r="AE14"/>
@@ -1335,16 +1543,20 @@
         <v>25</v>
       </c>
       <c r="C15" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="1">
         <v>0</v>
@@ -1355,15 +1567,23 @@
       <c r="M15" s="1">
         <v>0</v>
       </c>
-      <c r="N15" s="1"/>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q15" s="2"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
+      <c r="R15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
       <c r="U15" s="6">
         <v>0</v>
       </c>
@@ -1385,7 +1605,7 @@
       <c r="AC15" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD15" s="2">
+      <c r="AD15">
         <v>0</v>
       </c>
       <c r="AE15"/>
@@ -1399,16 +1619,20 @@
         <v>26</v>
       </c>
       <c r="C16" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="1">
         <v>0</v>
@@ -1419,15 +1643,23 @@
       <c r="M16" s="1">
         <v>0</v>
       </c>
-      <c r="N16" s="1"/>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q16" s="2"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
+      <c r="R16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
       <c r="U16" s="6">
         <v>0</v>
       </c>
@@ -1449,7 +1681,7 @@
       <c r="AC16" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD16" s="2">
+      <c r="AD16">
         <v>0</v>
       </c>
       <c r="AE16"/>
@@ -1463,16 +1695,20 @@
         <v>27</v>
       </c>
       <c r="C17" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H17" s="2"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="1">
         <v>0</v>
@@ -1483,15 +1719,23 @@
       <c r="M17" s="1">
         <v>0</v>
       </c>
-      <c r="N17" s="1"/>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q17" s="2"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
+      <c r="R17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
       <c r="U17" s="6">
         <v>0</v>
       </c>
@@ -1513,7 +1757,7 @@
       <c r="AC17" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD17" s="2">
+      <c r="AD17">
         <v>0</v>
       </c>
       <c r="AE17"/>
@@ -1527,16 +1771,20 @@
         <v>28</v>
       </c>
       <c r="C18" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="1">
         <v>0</v>
@@ -1547,15 +1795,23 @@
       <c r="M18" s="1">
         <v>0</v>
       </c>
-      <c r="N18" s="1"/>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q18" s="2"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
+      <c r="R18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
       <c r="U18" s="6">
         <v>0</v>
       </c>
@@ -1577,7 +1833,7 @@
       <c r="AC18" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD18" s="2">
+      <c r="AD18">
         <v>0</v>
       </c>
       <c r="AE18"/>
@@ -1591,16 +1847,20 @@
         <v>29</v>
       </c>
       <c r="C19" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="1">
         <v>0</v>
@@ -1611,15 +1871,23 @@
       <c r="M19" s="1">
         <v>0</v>
       </c>
-      <c r="N19" s="1"/>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q19" s="2"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
+      <c r="R19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
       <c r="U19" s="6">
         <v>0</v>
       </c>
@@ -1641,7 +1909,7 @@
       <c r="AC19" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD19" s="2">
+      <c r="AD19">
         <v>0</v>
       </c>
       <c r="AE19"/>
@@ -1655,16 +1923,20 @@
         <v>30</v>
       </c>
       <c r="C20" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H20" s="2"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
       <c r="J20" s="2"/>
       <c r="K20" s="1">
         <v>0</v>
@@ -1675,15 +1947,23 @@
       <c r="M20" s="1">
         <v>0</v>
       </c>
-      <c r="N20" s="1"/>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q20" s="2"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
+      <c r="R20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
       <c r="U20" s="6">
         <v>0</v>
       </c>
@@ -1705,7 +1985,7 @@
       <c r="AC20" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD20" s="2">
+      <c r="AD20">
         <v>0</v>
       </c>
       <c r="AE20"/>
@@ -1719,16 +1999,20 @@
         <v>31</v>
       </c>
       <c r="C21" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H21" s="2"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="1">
         <v>0</v>
@@ -1739,15 +2023,23 @@
       <c r="M21" s="1">
         <v>0</v>
       </c>
-      <c r="N21" s="1"/>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q21" s="2"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
+      <c r="R21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
       <c r="U21" s="6">
         <v>0</v>
       </c>
@@ -1769,7 +2061,7 @@
       <c r="AC21" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD21" s="2">
+      <c r="AD21">
         <v>0</v>
       </c>
       <c r="AE21"/>
@@ -1783,16 +2075,20 @@
         <v>32</v>
       </c>
       <c r="C22" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H22" s="2"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="1">
         <v>0</v>
@@ -1803,15 +2099,23 @@
       <c r="M22" s="1">
         <v>0</v>
       </c>
-      <c r="N22" s="1"/>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q22" s="2"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
+      <c r="R22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
       <c r="U22" s="6">
         <v>0</v>
       </c>
@@ -1833,7 +2137,7 @@
       <c r="AC22" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD22" s="2">
+      <c r="AD22">
         <v>0</v>
       </c>
       <c r="AE22"/>
@@ -1847,16 +2151,20 @@
         <v>33</v>
       </c>
       <c r="C23" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H23" s="2"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="1">
         <v>0</v>
@@ -1867,15 +2175,23 @@
       <c r="M23" s="1">
         <v>0</v>
       </c>
-      <c r="N23" s="1"/>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q23" s="2"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
+      <c r="R23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
       <c r="U23" s="6">
         <v>0</v>
       </c>
@@ -1897,7 +2213,7 @@
       <c r="AC23" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD23" s="2">
+      <c r="AD23">
         <v>0</v>
       </c>
       <c r="AE23"/>
@@ -1911,16 +2227,20 @@
         <v>34</v>
       </c>
       <c r="C24" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H24" s="2"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="1">
         <v>0</v>
@@ -1931,15 +2251,23 @@
       <c r="M24" s="1">
         <v>0</v>
       </c>
-      <c r="N24" s="1"/>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q24" s="2"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
+      <c r="R24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
       <c r="U24" s="6">
         <v>0</v>
       </c>
@@ -1961,7 +2289,7 @@
       <c r="AC24" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD24" s="2">
+      <c r="AD24">
         <v>0</v>
       </c>
       <c r="AE24"/>
@@ -1975,16 +2303,20 @@
         <v>35</v>
       </c>
       <c r="C25" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H25" s="2"/>
-      <c r="I25" s="1"/>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="K25" s="1">
         <v>0</v>
@@ -1995,15 +2327,23 @@
       <c r="M25" s="1">
         <v>0</v>
       </c>
-      <c r="N25" s="1"/>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q25" s="2"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
+      <c r="R25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
       <c r="U25" s="6">
         <v>0</v>
       </c>
@@ -2025,7 +2365,7 @@
       <c r="AC25" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD25" s="2">
+      <c r="AD25">
         <v>0</v>
       </c>
       <c r="AE25"/>
@@ -2039,16 +2379,20 @@
         <v>36</v>
       </c>
       <c r="C26" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H26" s="2"/>
-      <c r="I26" s="1"/>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="K26" s="1">
         <v>0</v>
@@ -2059,15 +2403,23 @@
       <c r="M26" s="1">
         <v>0</v>
       </c>
-      <c r="N26" s="1"/>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q26" s="2"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
+      <c r="R26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0</v>
+      </c>
       <c r="U26" s="6">
         <v>0</v>
       </c>
@@ -2089,7 +2441,7 @@
       <c r="AC26" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD26" s="2">
+      <c r="AD26">
         <v>0</v>
       </c>
       <c r="AE26"/>
@@ -2103,16 +2455,20 @@
         <v>37</v>
       </c>
       <c r="C27" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H27" s="2"/>
-      <c r="I27" s="1"/>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
       <c r="J27" s="2"/>
       <c r="K27" s="1">
         <v>0</v>
@@ -2123,15 +2479,23 @@
       <c r="M27" s="1">
         <v>0</v>
       </c>
-      <c r="N27" s="1"/>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q27" s="2"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
+      <c r="R27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
       <c r="U27" s="6">
         <v>0</v>
       </c>
@@ -2153,7 +2517,7 @@
       <c r="AC27" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD27" s="2">
+      <c r="AD27">
         <v>0</v>
       </c>
       <c r="AE27"/>
@@ -2167,16 +2531,20 @@
         <v>38</v>
       </c>
       <c r="C28" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H28" s="2"/>
-      <c r="I28" s="1"/>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
       <c r="J28" s="2"/>
       <c r="K28" s="1">
         <v>0</v>
@@ -2187,15 +2555,23 @@
       <c r="M28" s="1">
         <v>0</v>
       </c>
-      <c r="N28" s="1"/>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q28" s="2"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
+      <c r="R28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
       <c r="U28" s="6">
         <v>0</v>
       </c>
@@ -2217,7 +2593,7 @@
       <c r="AC28" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD28" s="2">
+      <c r="AD28">
         <v>0</v>
       </c>
       <c r="AE28"/>
@@ -2231,16 +2607,20 @@
         <v>39</v>
       </c>
       <c r="C29" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H29" s="2"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
       <c r="J29" s="2"/>
       <c r="K29" s="1">
         <v>0</v>
@@ -2251,15 +2631,23 @@
       <c r="M29" s="1">
         <v>0</v>
       </c>
-      <c r="N29" s="1"/>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q29" s="2"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
+      <c r="R29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
       <c r="U29" s="6">
         <v>0</v>
       </c>
@@ -2281,7 +2669,7 @@
       <c r="AC29" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD29" s="2">
+      <c r="AD29">
         <v>0</v>
       </c>
       <c r="AE29"/>
@@ -2295,16 +2683,20 @@
         <v>40</v>
       </c>
       <c r="C30" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F30" s="2"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H30" s="2"/>
-      <c r="I30" s="1"/>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
       <c r="J30" s="2"/>
       <c r="K30" s="1">
         <v>0</v>
@@ -2315,15 +2707,23 @@
       <c r="M30" s="1">
         <v>0</v>
       </c>
-      <c r="N30" s="1"/>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q30" s="2"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
+      <c r="R30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0</v>
+      </c>
       <c r="U30" s="6">
         <v>0</v>
       </c>
@@ -2345,7 +2745,7 @@
       <c r="AC30" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD30" s="2">
+      <c r="AD30">
         <v>0</v>
       </c>
       <c r="AE30"/>
@@ -2359,16 +2759,20 @@
         <v>41</v>
       </c>
       <c r="C31" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F31" s="2"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H31" s="2"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
       <c r="J31" s="2"/>
       <c r="K31" s="1">
         <v>0</v>
@@ -2379,15 +2783,23 @@
       <c r="M31" s="1">
         <v>0</v>
       </c>
-      <c r="N31" s="1"/>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q31" s="2"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
+      <c r="R31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0</v>
+      </c>
       <c r="U31" s="6">
         <v>0</v>
       </c>
@@ -2409,7 +2821,7 @@
       <c r="AC31" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD31" s="2">
+      <c r="AD31">
         <v>0</v>
       </c>
       <c r="AE31"/>
@@ -2423,16 +2835,20 @@
         <v>42</v>
       </c>
       <c r="C32" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F32" s="2"/>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H32" s="2"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
       <c r="J32" s="2"/>
       <c r="K32" s="1">
         <v>0</v>
@@ -2443,15 +2859,23 @@
       <c r="M32" s="1">
         <v>0</v>
       </c>
-      <c r="N32" s="1"/>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q32" s="2"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
+      <c r="R32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0</v>
+      </c>
       <c r="U32" s="6">
         <v>0</v>
       </c>
@@ -2473,7 +2897,7 @@
       <c r="AC32" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD32" s="2">
+      <c r="AD32">
         <v>0</v>
       </c>
       <c r="AE32"/>
@@ -2487,16 +2911,20 @@
         <v>43</v>
       </c>
       <c r="C33" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F33" s="2"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H33" s="2"/>
-      <c r="I33" s="1"/>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
       <c r="J33" s="2"/>
       <c r="K33" s="1">
         <v>0</v>
@@ -2507,15 +2935,23 @@
       <c r="M33" s="1">
         <v>0</v>
       </c>
-      <c r="N33" s="1"/>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q33" s="2"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
+      <c r="R33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0</v>
+      </c>
       <c r="U33" s="6">
         <v>0</v>
       </c>
@@ -2537,7 +2973,7 @@
       <c r="AC33" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD33" s="2">
+      <c r="AD33">
         <v>0</v>
       </c>
       <c r="AE33"/>
@@ -2551,16 +2987,20 @@
         <v>44</v>
       </c>
       <c r="C34" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F34" s="2"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H34" s="2"/>
-      <c r="I34" s="1"/>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
       <c r="J34" s="2"/>
       <c r="K34" s="1">
         <v>0</v>
@@ -2571,15 +3011,23 @@
       <c r="M34" s="1">
         <v>0</v>
       </c>
-      <c r="N34" s="1"/>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q34" s="2"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
+      <c r="R34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0</v>
+      </c>
       <c r="U34" s="6">
         <v>0</v>
       </c>
@@ -2601,7 +3049,7 @@
       <c r="AC34" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD34" s="2">
+      <c r="AD34">
         <v>0</v>
       </c>
       <c r="AE34"/>
@@ -2615,16 +3063,20 @@
         <v>45</v>
       </c>
       <c r="C35" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F35" s="2"/>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H35" s="2"/>
-      <c r="I35" s="1"/>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
       <c r="J35" s="2"/>
       <c r="K35" s="1">
         <v>0</v>
@@ -2635,15 +3087,23 @@
       <c r="M35" s="1">
         <v>0</v>
       </c>
-      <c r="N35" s="1"/>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q35" s="2"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
+      <c r="R35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0</v>
+      </c>
       <c r="U35" s="6">
         <v>0</v>
       </c>
@@ -2665,7 +3125,7 @@
       <c r="AC35" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD35" s="2">
+      <c r="AD35">
         <v>0</v>
       </c>
       <c r="AE35"/>
@@ -2679,16 +3139,20 @@
         <v>46</v>
       </c>
       <c r="C36" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F36" s="2"/>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H36" s="2"/>
-      <c r="I36" s="1"/>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
       <c r="J36" s="2"/>
       <c r="K36" s="1">
         <v>0</v>
@@ -2699,15 +3163,23 @@
       <c r="M36" s="1">
         <v>0</v>
       </c>
-      <c r="N36" s="1"/>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q36" s="2"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
+      <c r="R36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0</v>
+      </c>
       <c r="U36" s="6">
         <v>0</v>
       </c>
@@ -2729,7 +3201,7 @@
       <c r="AC36" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD36" s="2">
+      <c r="AD36">
         <v>0</v>
       </c>
       <c r="AE36"/>
@@ -2743,16 +3215,20 @@
         <v>47</v>
       </c>
       <c r="C37" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F37" s="2"/>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H37" s="2"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
       <c r="J37" s="2"/>
       <c r="K37" s="1">
         <v>0</v>
@@ -2763,17 +3239,25 @@
       <c r="M37" s="1">
         <v>0</v>
       </c>
-      <c r="N37" s="1"/>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" s="6">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="Q37" s="2"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
+      <c r="R37" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="S37" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U37" s="6">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="1">
@@ -2793,7 +3277,7 @@
       <c r="AC37" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD37" s="2">
+      <c r="AD37">
         <v>0</v>
       </c>
       <c r="AE37"/>
@@ -2807,16 +3291,20 @@
         <v>48</v>
       </c>
       <c r="C38" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F38" s="2"/>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H38" s="2"/>
-      <c r="I38" s="1"/>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
       <c r="J38" s="2"/>
       <c r="K38" s="1">
         <v>0</v>
@@ -2827,17 +3315,25 @@
       <c r="M38" s="1">
         <v>0</v>
       </c>
-      <c r="N38" s="1"/>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" s="6">
-        <v>0</v>
+        <v>110000.0</v>
       </c>
       <c r="Q38" s="2"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
+      <c r="R38" s="1">
+        <v>110000.0</v>
+      </c>
+      <c r="S38" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U38" s="6">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="1">
@@ -2857,7 +3353,7 @@
       <c r="AC38" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AD38">
         <v>0</v>
       </c>
       <c r="AE38"/>
@@ -2871,16 +3367,20 @@
         <v>49</v>
       </c>
       <c r="C39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F39" s="9"/>
-      <c r="G39" s="8"/>
+      <c r="G39" s="8">
+        <v>0.0</v>
+      </c>
       <c r="H39" s="9"/>
-      <c r="I39" s="8"/>
+      <c r="I39" s="8">
+        <v>0</v>
+      </c>
       <c r="J39" s="9"/>
       <c r="K39" s="8">
         <v>0</v>
@@ -2891,17 +3391,25 @@
       <c r="M39" s="8">
         <v>0</v>
       </c>
-      <c r="N39" s="8"/>
+      <c r="N39" s="8">
+        <v>0</v>
+      </c>
       <c r="O39" s="9"/>
       <c r="P39" s="8">
-        <v>0</v>
+        <v>121000.0</v>
       </c>
       <c r="Q39" s="9"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
+      <c r="R39" s="8">
+        <v>121000.0</v>
+      </c>
+      <c r="S39" s="8">
+        <v>100000.0</v>
+      </c>
+      <c r="T39" s="8">
+        <v>100000.0</v>
+      </c>
       <c r="U39" s="8">
-        <v>0</v>
+        <v>121000</v>
       </c>
       <c r="V39" s="9"/>
       <c r="W39" s="8">
@@ -2921,10 +3429,11 @@
       <c r="AC39" s="8">
         <v>0.0</v>
       </c>
-      <c r="AD39" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE39"/>
+      <c r="AD39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
       <c r="AG39"/>
     </row>
     <row r="40" spans="1:33">
@@ -2935,16 +3444,20 @@
         <v>50</v>
       </c>
       <c r="C40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F40" s="12"/>
-      <c r="G40" s="11"/>
+      <c r="G40" s="11">
+        <v>0.0</v>
+      </c>
       <c r="H40" s="12"/>
-      <c r="I40" s="11"/>
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
       <c r="J40" s="12"/>
       <c r="K40" s="11">
         <v>0</v>
@@ -2955,17 +3468,25 @@
       <c r="M40" s="11">
         <v>0</v>
       </c>
-      <c r="N40" s="11"/>
+      <c r="N40" s="11">
+        <v>0</v>
+      </c>
       <c r="O40" s="12"/>
       <c r="P40" s="11">
-        <v>0</v>
+        <v>133100.0</v>
       </c>
       <c r="Q40" s="12"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
+      <c r="R40" s="11">
+        <v>133100.0</v>
+      </c>
+      <c r="S40" s="11">
+        <v>100000.0</v>
+      </c>
+      <c r="T40" s="11">
+        <v>100000.0</v>
+      </c>
       <c r="U40" s="11">
-        <v>0</v>
+        <v>133100</v>
       </c>
       <c r="V40" s="12"/>
       <c r="W40" s="11">
@@ -2985,10 +3506,11 @@
       <c r="AC40" s="11">
         <v>0.0</v>
       </c>
-      <c r="AD40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE40"/>
+      <c r="AD40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
       <c r="AG40"/>
     </row>
     <row r="41" spans="1:33">
@@ -2999,16 +3521,20 @@
         <v>51</v>
       </c>
       <c r="C41" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F41" s="2"/>
-      <c r="G41" s="1"/>
+      <c r="G41" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H41" s="2"/>
-      <c r="I41" s="1"/>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
       <c r="J41" s="2"/>
       <c r="K41" s="1">
         <v>0</v>
@@ -3019,17 +3545,25 @@
       <c r="M41" s="1">
         <v>0</v>
       </c>
-      <c r="N41" s="1"/>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" s="6">
-        <v>0</v>
+        <v>146410.0</v>
       </c>
       <c r="Q41" s="2"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
+      <c r="R41" s="1">
+        <v>146410.0</v>
+      </c>
+      <c r="S41" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T41" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U41" s="6">
-        <v>0</v>
+        <v>146410</v>
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="1">
@@ -3049,7 +3583,7 @@
       <c r="AC41" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD41" s="2">
+      <c r="AD41">
         <v>0</v>
       </c>
       <c r="AE41"/>
@@ -3063,16 +3597,20 @@
         <v>52</v>
       </c>
       <c r="C42" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F42" s="2"/>
-      <c r="G42" s="1"/>
+      <c r="G42" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H42" s="2"/>
-      <c r="I42" s="1"/>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
       <c r="J42" s="2"/>
       <c r="K42" s="1">
         <v>0</v>
@@ -3083,17 +3621,25 @@
       <c r="M42" s="1">
         <v>0</v>
       </c>
-      <c r="N42" s="1"/>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" s="6">
-        <v>0</v>
+        <v>161051.0</v>
       </c>
       <c r="Q42" s="2"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
+      <c r="R42" s="1">
+        <v>161051.0</v>
+      </c>
+      <c r="S42" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T42" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U42" s="6">
-        <v>0</v>
+        <v>161051</v>
       </c>
       <c r="V42" s="2"/>
       <c r="W42" s="1">
@@ -3113,7 +3659,7 @@
       <c r="AC42" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD42" s="2">
+      <c r="AD42">
         <v>0</v>
       </c>
       <c r="AE42"/>
@@ -3127,16 +3673,20 @@
         <v>53</v>
       </c>
       <c r="C43" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F43" s="2"/>
-      <c r="G43" s="1"/>
+      <c r="G43" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H43" s="2"/>
-      <c r="I43" s="1"/>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
       <c r="J43" s="2"/>
       <c r="K43" s="1">
         <v>0</v>
@@ -3147,17 +3697,25 @@
       <c r="M43" s="1">
         <v>0</v>
       </c>
-      <c r="N43" s="1"/>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" s="6">
-        <v>0</v>
+        <v>177156.0</v>
       </c>
       <c r="Q43" s="2"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
+      <c r="R43" s="1">
+        <v>177156.0</v>
+      </c>
+      <c r="S43" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T43" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U43" s="6">
-        <v>0</v>
+        <v>177156</v>
       </c>
       <c r="V43" s="2"/>
       <c r="W43" s="1">
@@ -3177,7 +3735,7 @@
       <c r="AC43" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD43" s="2">
+      <c r="AD43">
         <v>0</v>
       </c>
       <c r="AE43"/>
@@ -3191,16 +3749,20 @@
         <v>54</v>
       </c>
       <c r="C44" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F44" s="2"/>
-      <c r="G44" s="1"/>
+      <c r="G44" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H44" s="2"/>
-      <c r="I44" s="1"/>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
       <c r="J44" s="2"/>
       <c r="K44" s="1">
         <v>0</v>
@@ -3211,17 +3773,25 @@
       <c r="M44" s="1">
         <v>0</v>
       </c>
-      <c r="N44" s="1"/>
+      <c r="N44" s="1">
+        <v>0</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" s="6">
-        <v>0</v>
+        <v>194872.0</v>
       </c>
       <c r="Q44" s="2"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
+      <c r="R44" s="1">
+        <v>194872.0</v>
+      </c>
+      <c r="S44" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T44" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U44" s="6">
-        <v>0</v>
+        <v>194872</v>
       </c>
       <c r="V44" s="2"/>
       <c r="W44" s="1">
@@ -3241,7 +3811,7 @@
       <c r="AC44" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD44" s="2">
+      <c r="AD44">
         <v>0</v>
       </c>
       <c r="AE44"/>
@@ -3255,16 +3825,20 @@
         <v>55</v>
       </c>
       <c r="C45" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F45" s="2"/>
-      <c r="G45" s="1"/>
+      <c r="G45" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H45" s="2"/>
-      <c r="I45" s="1"/>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
       <c r="J45" s="2"/>
       <c r="K45" s="1">
         <v>0</v>
@@ -3275,17 +3849,25 @@
       <c r="M45" s="1">
         <v>0</v>
       </c>
-      <c r="N45" s="1"/>
+      <c r="N45" s="1">
+        <v>0</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" s="6">
-        <v>0</v>
+        <v>214359.0</v>
       </c>
       <c r="Q45" s="2"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
+      <c r="R45" s="1">
+        <v>214359.0</v>
+      </c>
+      <c r="S45" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T45" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U45" s="6">
-        <v>0</v>
+        <v>214359</v>
       </c>
       <c r="V45" s="2"/>
       <c r="W45" s="1">
@@ -3305,7 +3887,7 @@
       <c r="AC45" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD45" s="2">
+      <c r="AD45">
         <v>0</v>
       </c>
       <c r="AE45"/>
@@ -3319,16 +3901,20 @@
         <v>56</v>
       </c>
       <c r="C46" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F46" s="2"/>
-      <c r="G46" s="1"/>
+      <c r="G46" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H46" s="2"/>
-      <c r="I46" s="1"/>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
       <c r="J46" s="2"/>
       <c r="K46" s="1">
         <v>0</v>
@@ -3339,17 +3925,25 @@
       <c r="M46" s="1">
         <v>0</v>
       </c>
-      <c r="N46" s="1"/>
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" s="6">
-        <v>0</v>
+        <v>235795.0</v>
       </c>
       <c r="Q46" s="2"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
+      <c r="R46" s="1">
+        <v>235795.0</v>
+      </c>
+      <c r="S46" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T46" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U46" s="6">
-        <v>0</v>
+        <v>235795</v>
       </c>
       <c r="V46" s="2"/>
       <c r="W46" s="1">
@@ -3369,7 +3963,7 @@
       <c r="AC46" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD46" s="2">
+      <c r="AD46">
         <v>0</v>
       </c>
       <c r="AE46"/>
@@ -3383,16 +3977,20 @@
         <v>57</v>
       </c>
       <c r="C47" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F47" s="2"/>
-      <c r="G47" s="1"/>
+      <c r="G47" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H47" s="2"/>
-      <c r="I47" s="1"/>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
       <c r="J47" s="2"/>
       <c r="K47" s="1">
         <v>0</v>
@@ -3403,17 +4001,25 @@
       <c r="M47" s="1">
         <v>0</v>
       </c>
-      <c r="N47" s="1"/>
+      <c r="N47" s="1">
+        <v>0</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" s="6">
-        <v>0</v>
+        <v>259375.0</v>
       </c>
       <c r="Q47" s="2"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
+      <c r="R47" s="1">
+        <v>259375.0</v>
+      </c>
+      <c r="S47" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T47" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U47" s="6">
-        <v>0</v>
+        <v>259375</v>
       </c>
       <c r="V47" s="2"/>
       <c r="W47" s="1">
@@ -3433,7 +4039,7 @@
       <c r="AC47" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD47" s="2">
+      <c r="AD47">
         <v>0</v>
       </c>
       <c r="AE47"/>
@@ -3447,16 +4053,20 @@
         <v>58</v>
       </c>
       <c r="C48" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F48" s="2"/>
-      <c r="G48" s="1"/>
+      <c r="G48" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H48" s="2"/>
-      <c r="I48" s="1"/>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
       <c r="J48" s="2"/>
       <c r="K48" s="1">
         <v>0</v>
@@ -3467,17 +4077,25 @@
       <c r="M48" s="1">
         <v>0</v>
       </c>
-      <c r="N48" s="1"/>
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" s="6">
-        <v>0</v>
+        <v>285313.0</v>
       </c>
       <c r="Q48" s="2"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
+      <c r="R48" s="1">
+        <v>285313.0</v>
+      </c>
+      <c r="S48" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T48" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U48" s="6">
-        <v>0</v>
+        <v>285313</v>
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="1">
@@ -3497,7 +4115,7 @@
       <c r="AC48" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD48" s="2">
+      <c r="AD48">
         <v>0</v>
       </c>
       <c r="AE48"/>
@@ -3511,16 +4129,20 @@
         <v>59</v>
       </c>
       <c r="C49" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F49" s="2"/>
-      <c r="G49" s="1"/>
+      <c r="G49" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H49" s="2"/>
-      <c r="I49" s="1"/>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
       <c r="J49" s="2"/>
       <c r="K49" s="1">
         <v>0</v>
@@ -3531,17 +4153,25 @@
       <c r="M49" s="1">
         <v>0</v>
       </c>
-      <c r="N49" s="1"/>
+      <c r="N49" s="1">
+        <v>0</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" s="6">
-        <v>0</v>
+        <v>313844.0</v>
       </c>
       <c r="Q49" s="2"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
+      <c r="R49" s="1">
+        <v>313844.0</v>
+      </c>
+      <c r="S49" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T49" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U49" s="6">
-        <v>0</v>
+        <v>313844</v>
       </c>
       <c r="V49" s="2"/>
       <c r="W49" s="1">
@@ -3561,7 +4191,7 @@
       <c r="AC49" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD49" s="2">
+      <c r="AD49">
         <v>0</v>
       </c>
       <c r="AE49"/>
@@ -3575,16 +4205,20 @@
         <v>60</v>
       </c>
       <c r="C50" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F50" s="2"/>
-      <c r="G50" s="1"/>
+      <c r="G50" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H50" s="2"/>
-      <c r="I50" s="1"/>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
       <c r="J50" s="2"/>
       <c r="K50" s="1">
         <v>0</v>
@@ -3595,17 +4229,25 @@
       <c r="M50" s="1">
         <v>0</v>
       </c>
-      <c r="N50" s="1"/>
+      <c r="N50" s="1">
+        <v>0</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" s="6">
-        <v>0</v>
+        <v>345228.0</v>
       </c>
       <c r="Q50" s="2"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
+      <c r="R50" s="1">
+        <v>345228.0</v>
+      </c>
+      <c r="S50" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T50" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U50" s="6">
-        <v>0</v>
+        <v>345228</v>
       </c>
       <c r="V50" s="2"/>
       <c r="W50" s="1">
@@ -3625,7 +4267,7 @@
       <c r="AC50" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD50" s="2">
+      <c r="AD50">
         <v>0</v>
       </c>
       <c r="AE50"/>
@@ -3639,16 +4281,20 @@
         <v>61</v>
       </c>
       <c r="C51" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F51" s="2"/>
-      <c r="G51" s="1"/>
+      <c r="G51" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H51" s="2"/>
-      <c r="I51" s="1"/>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
       <c r="J51" s="2"/>
       <c r="K51" s="1">
         <v>0</v>
@@ -3659,17 +4305,25 @@
       <c r="M51" s="1">
         <v>0</v>
       </c>
-      <c r="N51" s="1"/>
+      <c r="N51" s="1">
+        <v>0</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" s="6">
-        <v>0</v>
+        <v>379751.0</v>
       </c>
       <c r="Q51" s="2"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
+      <c r="R51" s="1">
+        <v>379751.0</v>
+      </c>
+      <c r="S51" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T51" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U51" s="6">
-        <v>0</v>
+        <v>379751</v>
       </c>
       <c r="V51" s="2"/>
       <c r="W51" s="1">
@@ -3689,7 +4343,7 @@
       <c r="AC51" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD51" s="2">
+      <c r="AD51">
         <v>0</v>
       </c>
       <c r="AE51"/>
@@ -3703,16 +4357,20 @@
         <v>62</v>
       </c>
       <c r="C52" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F52" s="2"/>
-      <c r="G52" s="1"/>
+      <c r="G52" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H52" s="2"/>
-      <c r="I52" s="1"/>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
       <c r="J52" s="2"/>
       <c r="K52" s="1">
         <v>0</v>
@@ -3723,17 +4381,25 @@
       <c r="M52" s="1">
         <v>0</v>
       </c>
-      <c r="N52" s="1"/>
+      <c r="N52" s="1">
+        <v>0</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" s="6">
-        <v>0</v>
+        <v>417726.0</v>
       </c>
       <c r="Q52" s="2"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
+      <c r="R52" s="1">
+        <v>417726.0</v>
+      </c>
+      <c r="S52" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T52" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U52" s="6">
-        <v>0</v>
+        <v>417726</v>
       </c>
       <c r="V52" s="2"/>
       <c r="W52" s="1">
@@ -3753,7 +4419,7 @@
       <c r="AC52" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD52" s="2">
+      <c r="AD52">
         <v>0</v>
       </c>
       <c r="AE52"/>
@@ -3767,16 +4433,20 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F53" s="14"/>
-      <c r="G53" s="13"/>
+      <c r="G53" s="13">
+        <v>0.0</v>
+      </c>
       <c r="H53" s="14"/>
-      <c r="I53" s="13"/>
+      <c r="I53" s="13">
+        <v>0</v>
+      </c>
       <c r="J53" s="14"/>
       <c r="K53" s="13">
         <v>0</v>
@@ -3787,17 +4457,25 @@
       <c r="M53" s="13">
         <v>0</v>
       </c>
-      <c r="N53" s="13"/>
+      <c r="N53" s="13">
+        <v>0</v>
+      </c>
       <c r="O53" s="14"/>
       <c r="P53" s="13">
-        <v>0</v>
+        <v>459499.0</v>
       </c>
       <c r="Q53" s="14"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="13"/>
-      <c r="T53" s="13"/>
+      <c r="R53" s="13">
+        <v>459499.0</v>
+      </c>
+      <c r="S53" s="13">
+        <v>100000.0</v>
+      </c>
+      <c r="T53" s="13">
+        <v>100000.0</v>
+      </c>
       <c r="U53" s="13">
-        <v>0</v>
+        <v>459499</v>
       </c>
       <c r="V53" s="14"/>
       <c r="W53" s="13">
@@ -3817,10 +4495,11 @@
       <c r="AC53" s="13">
         <v>0.0</v>
       </c>
-      <c r="AD53" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE53"/>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
       <c r="AG53"/>
     </row>
     <row r="54" spans="1:33">
@@ -3831,16 +4510,20 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F54" s="2"/>
-      <c r="G54" s="1"/>
+      <c r="G54" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H54" s="2"/>
-      <c r="I54" s="1"/>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
       <c r="J54" s="2"/>
       <c r="K54" s="1">
         <v>0</v>
@@ -3851,17 +4534,25 @@
       <c r="M54" s="1">
         <v>0</v>
       </c>
-      <c r="N54" s="1"/>
+      <c r="N54" s="1">
+        <v>0</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" s="6">
-        <v>0</v>
+        <v>505449.0</v>
       </c>
       <c r="Q54" s="2"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
+      <c r="R54" s="1">
+        <v>505449.0</v>
+      </c>
+      <c r="S54" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T54" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U54" s="6">
-        <v>0</v>
+        <v>505449</v>
       </c>
       <c r="V54" s="2"/>
       <c r="W54" s="1">
@@ -3881,7 +4572,7 @@
       <c r="AC54" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD54" s="2">
+      <c r="AD54">
         <v>0</v>
       </c>
       <c r="AE54"/>
@@ -3895,16 +4586,20 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F55" s="2"/>
-      <c r="G55" s="1"/>
+      <c r="G55" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H55" s="2"/>
-      <c r="I55" s="1"/>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
       <c r="J55" s="2"/>
       <c r="K55" s="1">
         <v>0</v>
@@ -3915,17 +4610,25 @@
       <c r="M55" s="1">
         <v>0</v>
       </c>
-      <c r="N55" s="1"/>
+      <c r="N55" s="1">
+        <v>0</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" s="6">
-        <v>0</v>
+        <v>555994.0</v>
       </c>
       <c r="Q55" s="2"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
+      <c r="R55" s="1">
+        <v>555994.0</v>
+      </c>
+      <c r="S55" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T55" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U55" s="6">
-        <v>0</v>
+        <v>555994</v>
       </c>
       <c r="V55" s="2"/>
       <c r="W55" s="1">
@@ -3945,7 +4648,7 @@
       <c r="AC55" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD55" s="2">
+      <c r="AD55">
         <v>0</v>
       </c>
       <c r="AE55"/>
@@ -3959,16 +4662,20 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F56" s="2"/>
-      <c r="G56" s="1"/>
+      <c r="G56" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H56" s="2"/>
-      <c r="I56" s="1"/>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
       <c r="J56" s="2"/>
       <c r="K56" s="1">
         <v>0</v>
@@ -3979,17 +4686,25 @@
       <c r="M56" s="1">
         <v>0</v>
       </c>
-      <c r="N56" s="1"/>
+      <c r="N56" s="1">
+        <v>0</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" s="6">
-        <v>0</v>
+        <v>611593.0</v>
       </c>
       <c r="Q56" s="2"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
+      <c r="R56" s="1">
+        <v>611593.0</v>
+      </c>
+      <c r="S56" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T56" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U56" s="6">
-        <v>0</v>
+        <v>611593</v>
       </c>
       <c r="V56" s="2"/>
       <c r="W56" s="1">
@@ -4009,7 +4724,7 @@
       <c r="AC56" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD56" s="2">
+      <c r="AD56">
         <v>0</v>
       </c>
       <c r="AE56"/>
@@ -4023,16 +4738,20 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F57" s="14"/>
-      <c r="G57" s="13"/>
+      <c r="G57" s="13">
+        <v>0.0</v>
+      </c>
       <c r="H57" s="14"/>
-      <c r="I57" s="13"/>
+      <c r="I57" s="13">
+        <v>0</v>
+      </c>
       <c r="J57" s="14"/>
       <c r="K57" s="13">
         <v>0</v>
@@ -4043,17 +4762,25 @@
       <c r="M57" s="13">
         <v>0</v>
       </c>
-      <c r="N57" s="13"/>
+      <c r="N57" s="13">
+        <v>0</v>
+      </c>
       <c r="O57" s="14"/>
       <c r="P57" s="13">
-        <v>0</v>
+        <v>672752.0</v>
       </c>
       <c r="Q57" s="14"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="13"/>
-      <c r="T57" s="13"/>
+      <c r="R57" s="13">
+        <v>672752.0</v>
+      </c>
+      <c r="S57" s="13">
+        <v>100000.0</v>
+      </c>
+      <c r="T57" s="13">
+        <v>100000.0</v>
+      </c>
       <c r="U57" s="13">
-        <v>0</v>
+        <v>672752</v>
       </c>
       <c r="V57" s="14"/>
       <c r="W57" s="13">
@@ -4073,10 +4800,11 @@
       <c r="AC57" s="13">
         <v>0.0</v>
       </c>
-      <c r="AD57" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE57"/>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="3"/>
       <c r="AG57"/>
     </row>
     <row r="58" spans="1:33">
@@ -4087,16 +4815,20 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F58" s="2"/>
-      <c r="G58" s="1"/>
+      <c r="G58" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H58" s="2"/>
-      <c r="I58" s="1"/>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
       <c r="J58" s="2"/>
       <c r="K58" s="1">
         <v>0</v>
@@ -4107,17 +4839,25 @@
       <c r="M58" s="1">
         <v>0</v>
       </c>
-      <c r="N58" s="1"/>
+      <c r="N58" s="1">
+        <v>0</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" s="6">
-        <v>0</v>
+        <v>740027.0</v>
       </c>
       <c r="Q58" s="2"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
-      <c r="T58" s="1"/>
+      <c r="R58" s="1">
+        <v>740027.0</v>
+      </c>
+      <c r="S58" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T58" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U58" s="6">
-        <v>0</v>
+        <v>740027</v>
       </c>
       <c r="V58" s="2"/>
       <c r="W58" s="1">
@@ -4137,7 +4877,7 @@
       <c r="AC58" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD58" s="2">
+      <c r="AD58">
         <v>0</v>
       </c>
       <c r="AE58"/>
@@ -4151,16 +4891,20 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F59" s="2"/>
-      <c r="G59" s="1"/>
+      <c r="G59" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H59" s="2"/>
-      <c r="I59" s="1"/>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
       <c r="J59" s="2"/>
       <c r="K59" s="1">
         <v>0</v>
@@ -4171,17 +4915,25 @@
       <c r="M59" s="1">
         <v>0</v>
       </c>
-      <c r="N59" s="1"/>
+      <c r="N59" s="1">
+        <v>0</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" s="6">
-        <v>0</v>
+        <v>814030.0</v>
       </c>
       <c r="Q59" s="2"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
-      <c r="T59" s="1"/>
+      <c r="R59" s="1">
+        <v>814030.0</v>
+      </c>
+      <c r="S59" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T59" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U59" s="6">
-        <v>0</v>
+        <v>814030</v>
       </c>
       <c r="V59" s="2"/>
       <c r="W59" s="1">
@@ -4201,7 +4953,7 @@
       <c r="AC59" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD59" s="2">
+      <c r="AD59">
         <v>0</v>
       </c>
       <c r="AE59"/>
@@ -4215,16 +4967,20 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F60" s="2"/>
-      <c r="G60" s="1"/>
+      <c r="G60" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H60" s="2"/>
-      <c r="I60" s="1"/>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
       <c r="J60" s="2"/>
       <c r="K60" s="1">
         <v>0</v>
@@ -4235,17 +4991,25 @@
       <c r="M60" s="1">
         <v>0</v>
       </c>
-      <c r="N60" s="1"/>
+      <c r="N60" s="1">
+        <v>0</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" s="6">
-        <v>0</v>
+        <v>895433.0</v>
       </c>
       <c r="Q60" s="2"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
+      <c r="R60" s="1">
+        <v>895433.0</v>
+      </c>
+      <c r="S60" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T60" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U60" s="6">
-        <v>0</v>
+        <v>895433</v>
       </c>
       <c r="V60" s="2"/>
       <c r="W60" s="1">
@@ -4265,7 +5029,7 @@
       <c r="AC60" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD60" s="2">
+      <c r="AD60">
         <v>0</v>
       </c>
       <c r="AE60"/>
@@ -4279,16 +5043,20 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F61" s="2"/>
-      <c r="G61" s="1"/>
+      <c r="G61" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H61" s="2"/>
-      <c r="I61" s="1"/>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
       <c r="J61" s="2"/>
       <c r="K61" s="1">
         <v>0</v>
@@ -4299,17 +5067,25 @@
       <c r="M61" s="1">
         <v>0</v>
       </c>
-      <c r="N61" s="1"/>
+      <c r="N61" s="1">
+        <v>0</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" s="6">
-        <v>0</v>
+        <v>984976.0</v>
       </c>
       <c r="Q61" s="2"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="1"/>
+      <c r="R61" s="1">
+        <v>984976.0</v>
+      </c>
+      <c r="S61" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T61" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U61" s="6">
-        <v>0</v>
+        <v>984976</v>
       </c>
       <c r="V61" s="2"/>
       <c r="W61" s="1">
@@ -4329,7 +5105,7 @@
       <c r="AC61" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD61" s="2">
+      <c r="AD61">
         <v>0</v>
       </c>
       <c r="AE61"/>
@@ -4343,16 +5119,20 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F62" s="2"/>
-      <c r="G62" s="1"/>
+      <c r="G62" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H62" s="2"/>
-      <c r="I62" s="1"/>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
       <c r="J62" s="2"/>
       <c r="K62" s="1">
         <v>0</v>
@@ -4363,17 +5143,25 @@
       <c r="M62" s="1">
         <v>0</v>
       </c>
-      <c r="N62" s="1"/>
+      <c r="N62" s="1">
+        <v>0</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" s="6">
-        <v>0</v>
+        <v>1083474.0</v>
       </c>
       <c r="Q62" s="2"/>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
+      <c r="R62" s="1">
+        <v>1083474.0</v>
+      </c>
+      <c r="S62" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T62" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U62" s="6">
-        <v>0</v>
+        <v>1083474</v>
       </c>
       <c r="V62" s="2"/>
       <c r="W62" s="1">
@@ -4393,7 +5181,7 @@
       <c r="AC62" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD62" s="2">
+      <c r="AD62">
         <v>0</v>
       </c>
       <c r="AE62"/>
@@ -4407,16 +5195,20 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F63" s="2"/>
-      <c r="G63" s="1"/>
+      <c r="G63" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H63" s="2"/>
-      <c r="I63" s="1"/>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
       <c r="J63" s="2"/>
       <c r="K63" s="1">
         <v>0</v>
@@ -4427,17 +5219,25 @@
       <c r="M63" s="1">
         <v>0</v>
       </c>
-      <c r="N63" s="1"/>
+      <c r="N63" s="1">
+        <v>0</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" s="6">
-        <v>0</v>
+        <v>1191821.0</v>
       </c>
       <c r="Q63" s="2"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
+      <c r="R63" s="1">
+        <v>1191821.0</v>
+      </c>
+      <c r="S63" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T63" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U63" s="6">
-        <v>0</v>
+        <v>1191821</v>
       </c>
       <c r="V63" s="2"/>
       <c r="W63" s="1">
@@ -4457,7 +5257,7 @@
       <c r="AC63" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD63" s="2">
+      <c r="AD63">
         <v>0</v>
       </c>
       <c r="AE63"/>
@@ -4471,16 +5271,20 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F64" s="2"/>
-      <c r="G64" s="1"/>
+      <c r="G64" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H64" s="2"/>
-      <c r="I64" s="1"/>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
       <c r="J64" s="2"/>
       <c r="K64" s="1">
         <v>0</v>
@@ -4491,17 +5295,25 @@
       <c r="M64" s="1">
         <v>0</v>
       </c>
-      <c r="N64" s="1"/>
+      <c r="N64" s="1">
+        <v>0</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" s="6">
-        <v>0</v>
+        <v>1311003.0</v>
       </c>
       <c r="Q64" s="2"/>
-      <c r="R64" s="1"/>
-      <c r="S64" s="1"/>
-      <c r="T64" s="1"/>
+      <c r="R64" s="1">
+        <v>1311003.0</v>
+      </c>
+      <c r="S64" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T64" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U64" s="6">
-        <v>0</v>
+        <v>1311003</v>
       </c>
       <c r="V64" s="2"/>
       <c r="W64" s="1">
@@ -4521,7 +5333,7 @@
       <c r="AC64" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD64" s="2">
+      <c r="AD64">
         <v>0</v>
       </c>
       <c r="AE64"/>
@@ -4535,16 +5347,20 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F65" s="2"/>
-      <c r="G65" s="1"/>
+      <c r="G65" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H65" s="2"/>
-      <c r="I65" s="1"/>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
       <c r="J65" s="2"/>
       <c r="K65" s="1">
         <v>0</v>
@@ -4555,17 +5371,25 @@
       <c r="M65" s="1">
         <v>0</v>
       </c>
-      <c r="N65" s="1"/>
+      <c r="N65" s="1">
+        <v>0</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" s="6">
-        <v>0</v>
+        <v>1442103.0</v>
       </c>
       <c r="Q65" s="2"/>
-      <c r="R65" s="1"/>
-      <c r="S65" s="1"/>
-      <c r="T65" s="1"/>
+      <c r="R65" s="1">
+        <v>1442103.0</v>
+      </c>
+      <c r="S65" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T65" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U65" s="6">
-        <v>0</v>
+        <v>1442103</v>
       </c>
       <c r="V65" s="2"/>
       <c r="W65" s="1">
@@ -4585,7 +5409,7 @@
       <c r="AC65" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD65" s="2">
+      <c r="AD65">
         <v>0</v>
       </c>
       <c r="AE65"/>
@@ -4599,16 +5423,20 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F66" s="2"/>
-      <c r="G66" s="1"/>
+      <c r="G66" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H66" s="2"/>
-      <c r="I66" s="1"/>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
       <c r="J66" s="2"/>
       <c r="K66" s="1">
         <v>0</v>
@@ -4619,17 +5447,25 @@
       <c r="M66" s="1">
         <v>0</v>
       </c>
-      <c r="N66" s="1"/>
+      <c r="N66" s="1">
+        <v>0</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" s="6">
-        <v>0</v>
+        <v>1586313.0</v>
       </c>
       <c r="Q66" s="2"/>
-      <c r="R66" s="1"/>
-      <c r="S66" s="1"/>
-      <c r="T66" s="1"/>
+      <c r="R66" s="1">
+        <v>1586313.0</v>
+      </c>
+      <c r="S66" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T66" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U66" s="6">
-        <v>0</v>
+        <v>1586313</v>
       </c>
       <c r="V66" s="2"/>
       <c r="W66" s="1">
@@ -4649,7 +5485,7 @@
       <c r="AC66" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD66" s="2">
+      <c r="AD66">
         <v>0</v>
       </c>
       <c r="AE66"/>
@@ -4663,16 +5499,20 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F67" s="2"/>
-      <c r="G67" s="1"/>
+      <c r="G67" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H67" s="2"/>
-      <c r="I67" s="1"/>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
       <c r="J67" s="2"/>
       <c r="K67" s="1">
         <v>0</v>
@@ -4683,25 +5523,33 @@
       <c r="M67" s="1">
         <v>0</v>
       </c>
-      <c r="N67" s="1"/>
+      <c r="N67" s="1">
+        <v>0</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" s="6">
-        <v>0</v>
+        <v>1744944.0</v>
       </c>
       <c r="Q67" s="2"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
+      <c r="R67" s="1">
+        <v>1744944.0</v>
+      </c>
+      <c r="S67" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T67" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U67" s="6">
-        <v>0</v>
+        <v>1744944</v>
       </c>
       <c r="V67" s="2"/>
       <c r="W67" s="1">
-        <v>0.0</v>
+        <v>449.44</v>
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" s="1">
-        <v>0.0</v>
+        <v>-449.44</v>
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
@@ -4713,7 +5561,7 @@
       <c r="AC67" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD67" s="2">
+      <c r="AD67">
         <v>0</v>
       </c>
       <c r="AE67"/>
@@ -4727,16 +5575,20 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F68" s="2"/>
-      <c r="G68" s="1"/>
+      <c r="G68" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H68" s="2"/>
-      <c r="I68" s="1"/>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
       <c r="J68" s="2"/>
       <c r="K68" s="1">
         <v>0</v>
@@ -4747,25 +5599,33 @@
       <c r="M68" s="1">
         <v>0</v>
       </c>
-      <c r="N68" s="1"/>
+      <c r="N68" s="1">
+        <v>0</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" s="6">
-        <v>0</v>
+        <v>1919438.0</v>
       </c>
       <c r="Q68" s="2"/>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
+      <c r="R68" s="1">
+        <v>1919438.0</v>
+      </c>
+      <c r="S68" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T68" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U68" s="6">
-        <v>0</v>
+        <v>1919438</v>
       </c>
       <c r="V68" s="2"/>
       <c r="W68" s="1">
-        <v>0.0</v>
+        <v>2194.38</v>
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" s="1">
-        <v>0.0</v>
+        <v>-2194.38</v>
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
@@ -4777,7 +5637,7 @@
       <c r="AC68" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD68" s="2">
+      <c r="AD68">
         <v>0</v>
       </c>
       <c r="AE68"/>
@@ -4791,16 +5651,20 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F69" s="2"/>
-      <c r="G69" s="1"/>
+      <c r="G69" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H69" s="2"/>
-      <c r="I69" s="1"/>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
       <c r="J69" s="2"/>
       <c r="K69" s="1">
         <v>0</v>
@@ -4811,25 +5675,33 @@
       <c r="M69" s="1">
         <v>0</v>
       </c>
-      <c r="N69" s="1"/>
+      <c r="N69" s="1">
+        <v>0</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" s="6">
-        <v>0</v>
+        <v>2111382.0</v>
       </c>
       <c r="Q69" s="2"/>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
+      <c r="R69" s="1">
+        <v>2111382.0</v>
+      </c>
+      <c r="S69" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T69" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U69" s="6">
-        <v>0</v>
+        <v>2111382</v>
       </c>
       <c r="V69" s="2"/>
       <c r="W69" s="1">
-        <v>0.0</v>
+        <v>4113.82</v>
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" s="1">
-        <v>0.0</v>
+        <v>-4113.82</v>
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
@@ -4841,7 +5713,7 @@
       <c r="AC69" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD69" s="2">
+      <c r="AD69">
         <v>0</v>
       </c>
       <c r="AE69"/>
@@ -4855,16 +5727,20 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F70" s="2"/>
-      <c r="G70" s="1"/>
+      <c r="G70" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H70" s="2"/>
-      <c r="I70" s="1"/>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
       <c r="J70" s="2"/>
       <c r="K70" s="1">
         <v>0</v>
@@ -4875,25 +5751,33 @@
       <c r="M70" s="1">
         <v>0</v>
       </c>
-      <c r="N70" s="1"/>
+      <c r="N70" s="1">
+        <v>0</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" s="6">
-        <v>0</v>
+        <v>2322520.0</v>
       </c>
       <c r="Q70" s="2"/>
-      <c r="R70" s="1"/>
-      <c r="S70" s="1"/>
-      <c r="T70" s="1"/>
+      <c r="R70" s="1">
+        <v>2322520.0</v>
+      </c>
+      <c r="S70" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T70" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U70" s="6">
-        <v>0</v>
+        <v>2322520</v>
       </c>
       <c r="V70" s="2"/>
       <c r="W70" s="1">
-        <v>0.0</v>
+        <v>6225.2</v>
       </c>
       <c r="X70" s="2"/>
       <c r="Y70" s="1">
-        <v>0.0</v>
+        <v>-6225.2</v>
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
@@ -4905,7 +5789,7 @@
       <c r="AC70" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD70" s="2">
+      <c r="AD70">
         <v>0</v>
       </c>
       <c r="AE70"/>
@@ -4919,16 +5803,20 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F71" s="2"/>
-      <c r="G71" s="1"/>
+      <c r="G71" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H71" s="2"/>
-      <c r="I71" s="1"/>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
       <c r="J71" s="2"/>
       <c r="K71" s="1">
         <v>0</v>
@@ -4939,25 +5827,33 @@
       <c r="M71" s="1">
         <v>0</v>
       </c>
-      <c r="N71" s="1"/>
+      <c r="N71" s="1">
+        <v>0</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" s="6">
-        <v>0</v>
+        <v>2554772.0</v>
       </c>
       <c r="Q71" s="2"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
+      <c r="R71" s="1">
+        <v>2554772.0</v>
+      </c>
+      <c r="S71" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T71" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U71" s="6">
-        <v>0</v>
+        <v>2554772</v>
       </c>
       <c r="V71" s="2"/>
       <c r="W71" s="1">
-        <v>0.0</v>
+        <v>8547.72</v>
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" s="1">
-        <v>0.0</v>
+        <v>-8547.72</v>
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
@@ -4969,7 +5865,7 @@
       <c r="AC71" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD71" s="2">
+      <c r="AD71">
         <v>0</v>
       </c>
       <c r="AE71"/>
@@ -4983,16 +5879,20 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F72" s="16"/>
-      <c r="G72" s="5"/>
+      <c r="G72" s="5">
+        <v>0.0</v>
+      </c>
       <c r="H72" s="16"/>
-      <c r="I72" s="5"/>
+      <c r="I72" s="5">
+        <v>0</v>
+      </c>
       <c r="J72" s="16"/>
       <c r="K72" s="5">
         <v>0</v>
@@ -5003,25 +5903,33 @@
       <c r="M72" s="5">
         <v>0</v>
       </c>
-      <c r="N72" s="5"/>
+      <c r="N72" s="5">
+        <v>0</v>
+      </c>
       <c r="O72" s="16"/>
       <c r="P72" s="5">
-        <v>0</v>
+        <v>2810249.0</v>
       </c>
       <c r="Q72" s="16"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
+      <c r="R72" s="5">
+        <v>2810249.0</v>
+      </c>
+      <c r="S72" s="5">
+        <v>100000.0</v>
+      </c>
+      <c r="T72" s="5">
+        <v>100000.0</v>
+      </c>
       <c r="U72" s="5">
-        <v>0</v>
+        <v>2810249</v>
       </c>
       <c r="V72" s="16"/>
       <c r="W72" s="5">
-        <v>0.0</v>
+        <v>11102.49</v>
       </c>
       <c r="X72" s="16"/>
       <c r="Y72" s="5">
-        <v>0.0</v>
+        <v>-11102.49</v>
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
@@ -5033,10 +5941,11 @@
       <c r="AC72" s="5">
         <v>0.0</v>
       </c>
-      <c r="AD72" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE72"/>
+      <c r="AD72" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="15"/>
+      <c r="AF72" s="15"/>
       <c r="AG72"/>
     </row>
     <row r="73" spans="1:33">
@@ -5068,7 +5977,6 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
-      <c r="AD73" s="2"/>
     </row>
     <row r="74" spans="1:33">
       <c r="B74" s="1"/>
@@ -5099,7 +6007,6 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
-      <c r="AD74" s="2"/>
     </row>
     <row r="75" spans="1:33">
       <c r="B75" s="1"/>
@@ -5130,7 +6037,6 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
-      <c r="AD75" s="2"/>
     </row>
     <row r="76" spans="1:33">
       <c r="B76" s="1"/>
@@ -5161,7 +6067,6 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
-      <c r="AD76" s="2"/>
     </row>
     <row r="77" spans="1:33">
       <c r="B77" s="1"/>
@@ -5192,7 +6097,6 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
-      <c r="AD77" s="2"/>
     </row>
     <row r="78" spans="1:33">
       <c r="B78" s="1"/>
@@ -5223,7 +6127,6 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
-      <c r="AD78" s="2"/>
     </row>
     <row r="79" spans="1:33">
       <c r="B79" s="1"/>
@@ -5254,7 +6157,6 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
-      <c r="AD79" s="2"/>
     </row>
     <row r="80" spans="1:33">
       <c r="B80" s="1"/>
@@ -5285,7 +6187,6 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
-      <c r="AD80" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -5311,7 +6212,7 @@
   <dimension ref="A1:AG80"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A72" sqref="A72:AD72"/>
+      <selection activeCell="A72" sqref="A72:AF72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5332,21 +6233,25 @@
     <col min="14" max="14" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="15.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="24.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="27" max="27" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="28" max="28" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="29" max="29" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="30" max="30" width="9.283" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -5354,7 +6259,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -5366,7 +6271,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -5398,7 +6303,7 @@
       <c r="Z4" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5452,22 +6357,22 @@
         <v>28</v>
       </c>
       <c r="Q5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>19</v>
@@ -5479,28 +6384,28 @@
         <v>7</v>
       </c>
       <c r="Z5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF5" t="s">
         <v>39</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AG5" t="s">
         <v>40</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -5511,11 +6416,11 @@
         <v>16</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1">
@@ -5532,11 +6437,11 @@
       <c r="N6" s="1"/>
       <c r="O6" s="2"/>
       <c r="P6" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S6" s="1">
         <v>0</v>
@@ -5549,7 +6454,7 @@
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="1">
@@ -5565,12 +6470,12 @@
       <c r="AC6" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6"/>
       <c r="AG6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -5581,11 +6486,11 @@
         <v>17</v>
       </c>
       <c r="C7" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1">
@@ -5602,11 +6507,11 @@
       <c r="N7" s="1"/>
       <c r="O7" s="2"/>
       <c r="P7" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S7" s="1">
         <v>0</v>
@@ -5619,7 +6524,7 @@
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="1">
@@ -5635,12 +6540,12 @@
       <c r="AC7" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AD7">
         <v>0</v>
       </c>
       <c r="AE7"/>
       <c r="AG7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -5651,11 +6556,11 @@
         <v>18</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1">
@@ -5672,11 +6577,11 @@
       <c r="N8" s="1"/>
       <c r="O8" s="2"/>
       <c r="P8" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
@@ -5689,7 +6594,7 @@
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="1">
@@ -5705,12 +6610,12 @@
       <c r="AC8" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AD8">
         <v>0</v>
       </c>
       <c r="AE8"/>
       <c r="AG8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -5721,11 +6626,11 @@
         <v>19</v>
       </c>
       <c r="C9" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1">
@@ -5742,11 +6647,11 @@
       <c r="N9" s="1"/>
       <c r="O9" s="2"/>
       <c r="P9" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S9" s="1">
         <v>0</v>
@@ -5759,7 +6664,7 @@
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" s="1">
@@ -5775,12 +6680,12 @@
       <c r="AC9" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AD9">
         <v>0</v>
       </c>
       <c r="AE9"/>
       <c r="AG9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -5791,11 +6696,11 @@
         <v>20</v>
       </c>
       <c r="C10" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1">
@@ -5812,11 +6717,11 @@
       <c r="N10" s="1"/>
       <c r="O10" s="2"/>
       <c r="P10" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S10" s="1">
         <v>0</v>
@@ -5829,7 +6734,7 @@
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="1">
@@ -5845,12 +6750,12 @@
       <c r="AC10" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AD10">
         <v>0</v>
       </c>
       <c r="AE10"/>
       <c r="AG10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -5861,11 +6766,11 @@
         <v>21</v>
       </c>
       <c r="C11" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1">
@@ -5882,11 +6787,11 @@
       <c r="N11" s="1"/>
       <c r="O11" s="2"/>
       <c r="P11" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
@@ -5899,7 +6804,7 @@
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="1">
@@ -5915,12 +6820,12 @@
       <c r="AC11" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11"/>
       <c r="AG11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -5931,11 +6836,11 @@
         <v>22</v>
       </c>
       <c r="C12" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="1">
@@ -5952,11 +6857,11 @@
       <c r="N12" s="1"/>
       <c r="O12" s="2"/>
       <c r="P12" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S12" s="1">
         <v>0</v>
@@ -5969,7 +6874,7 @@
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="1">
@@ -5985,12 +6890,12 @@
       <c r="AC12" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AD12">
         <v>0</v>
       </c>
       <c r="AE12"/>
       <c r="AG12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -6001,11 +6906,11 @@
         <v>23</v>
       </c>
       <c r="C13" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1">
@@ -6022,11 +6927,11 @@
       <c r="N13" s="1"/>
       <c r="O13" s="2"/>
       <c r="P13" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S13" s="1">
         <v>0</v>
@@ -6039,7 +6944,7 @@
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="1">
@@ -6055,12 +6960,12 @@
       <c r="AC13" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD13" s="2">
+      <c r="AD13">
         <v>0</v>
       </c>
       <c r="AE13"/>
       <c r="AG13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -6071,11 +6976,11 @@
         <v>24</v>
       </c>
       <c r="C14" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="1">
@@ -6092,11 +6997,11 @@
       <c r="N14" s="1"/>
       <c r="O14" s="2"/>
       <c r="P14" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S14" s="1">
         <v>0</v>
@@ -6109,7 +7014,7 @@
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="1">
@@ -6125,12 +7030,12 @@
       <c r="AC14" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD14" s="2">
+      <c r="AD14">
         <v>0</v>
       </c>
       <c r="AE14"/>
       <c r="AG14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -6141,11 +7046,11 @@
         <v>25</v>
       </c>
       <c r="C15" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="1">
@@ -6162,11 +7067,11 @@
       <c r="N15" s="1"/>
       <c r="O15" s="2"/>
       <c r="P15" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S15" s="1">
         <v>0</v>
@@ -6179,7 +7084,7 @@
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="1">
@@ -6195,12 +7100,12 @@
       <c r="AC15" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD15" s="2">
+      <c r="AD15">
         <v>0</v>
       </c>
       <c r="AE15"/>
       <c r="AG15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -6211,11 +7116,11 @@
         <v>26</v>
       </c>
       <c r="C16" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1">
@@ -6232,11 +7137,11 @@
       <c r="N16" s="1"/>
       <c r="O16" s="2"/>
       <c r="P16" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S16" s="1">
         <v>0</v>
@@ -6249,7 +7154,7 @@
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="1">
@@ -6265,12 +7170,12 @@
       <c r="AC16" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD16" s="2">
+      <c r="AD16">
         <v>0</v>
       </c>
       <c r="AE16"/>
       <c r="AG16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:33">
@@ -6281,11 +7186,11 @@
         <v>27</v>
       </c>
       <c r="C17" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1">
@@ -6302,11 +7207,11 @@
       <c r="N17" s="1"/>
       <c r="O17" s="2"/>
       <c r="P17" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S17" s="1">
         <v>0</v>
@@ -6319,7 +7224,7 @@
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" s="1">
@@ -6335,12 +7240,12 @@
       <c r="AC17" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD17" s="2">
+      <c r="AD17">
         <v>0</v>
       </c>
       <c r="AE17"/>
       <c r="AG17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:33">
@@ -6351,11 +7256,11 @@
         <v>28</v>
       </c>
       <c r="C18" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1">
@@ -6372,11 +7277,11 @@
       <c r="N18" s="1"/>
       <c r="O18" s="2"/>
       <c r="P18" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S18" s="1">
         <v>0</v>
@@ -6389,7 +7294,7 @@
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="1">
@@ -6405,12 +7310,12 @@
       <c r="AC18" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD18" s="2">
+      <c r="AD18">
         <v>0</v>
       </c>
       <c r="AE18"/>
       <c r="AG18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:33">
@@ -6421,11 +7326,11 @@
         <v>29</v>
       </c>
       <c r="C19" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="1">
@@ -6442,11 +7347,11 @@
       <c r="N19" s="1"/>
       <c r="O19" s="2"/>
       <c r="P19" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S19" s="1">
         <v>0</v>
@@ -6459,7 +7364,7 @@
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" s="1">
@@ -6475,12 +7380,12 @@
       <c r="AC19" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD19" s="2">
+      <c r="AD19">
         <v>0</v>
       </c>
       <c r="AE19"/>
       <c r="AG19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:33">
@@ -6491,11 +7396,11 @@
         <v>30</v>
       </c>
       <c r="C20" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="1">
@@ -6512,11 +7417,11 @@
       <c r="N20" s="1"/>
       <c r="O20" s="2"/>
       <c r="P20" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S20" s="1">
         <v>0</v>
@@ -6529,7 +7434,7 @@
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="1">
@@ -6545,12 +7450,12 @@
       <c r="AC20" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD20" s="2">
+      <c r="AD20">
         <v>0</v>
       </c>
       <c r="AE20"/>
       <c r="AG20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:33">
@@ -6561,11 +7466,11 @@
         <v>31</v>
       </c>
       <c r="C21" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="1">
@@ -6582,11 +7487,11 @@
       <c r="N21" s="1"/>
       <c r="O21" s="2"/>
       <c r="P21" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S21" s="1">
         <v>0</v>
@@ -6599,7 +7504,7 @@
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" s="1">
@@ -6615,12 +7520,12 @@
       <c r="AC21" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD21" s="2">
+      <c r="AD21">
         <v>0</v>
       </c>
       <c r="AE21"/>
       <c r="AG21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:33">
@@ -6631,11 +7536,11 @@
         <v>32</v>
       </c>
       <c r="C22" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="1">
@@ -6652,11 +7557,11 @@
       <c r="N22" s="1"/>
       <c r="O22" s="2"/>
       <c r="P22" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S22" s="1">
         <v>0</v>
@@ -6669,7 +7574,7 @@
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="1">
@@ -6685,12 +7590,12 @@
       <c r="AC22" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD22" s="2">
+      <c r="AD22">
         <v>0</v>
       </c>
       <c r="AE22"/>
       <c r="AG22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:33">
@@ -6701,11 +7606,11 @@
         <v>33</v>
       </c>
       <c r="C23" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="1">
@@ -6722,11 +7627,11 @@
       <c r="N23" s="1"/>
       <c r="O23" s="2"/>
       <c r="P23" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S23" s="1">
         <v>0</v>
@@ -6739,7 +7644,7 @@
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" s="1">
@@ -6755,12 +7660,12 @@
       <c r="AC23" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD23" s="2">
+      <c r="AD23">
         <v>0</v>
       </c>
       <c r="AE23"/>
       <c r="AG23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:33">
@@ -6771,11 +7676,11 @@
         <v>34</v>
       </c>
       <c r="C24" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1">
@@ -6792,11 +7697,11 @@
       <c r="N24" s="1"/>
       <c r="O24" s="2"/>
       <c r="P24" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S24" s="1">
         <v>0</v>
@@ -6809,7 +7714,7 @@
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" s="1">
@@ -6825,12 +7730,12 @@
       <c r="AC24" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD24" s="2">
+      <c r="AD24">
         <v>0</v>
       </c>
       <c r="AE24"/>
       <c r="AG24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:33">
@@ -6841,11 +7746,11 @@
         <v>35</v>
       </c>
       <c r="C25" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1">
@@ -6862,11 +7767,11 @@
       <c r="N25" s="1"/>
       <c r="O25" s="2"/>
       <c r="P25" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S25" s="1">
         <v>0</v>
@@ -6879,7 +7784,7 @@
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" s="1">
@@ -6895,12 +7800,12 @@
       <c r="AC25" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD25" s="2">
+      <c r="AD25">
         <v>0</v>
       </c>
       <c r="AE25"/>
       <c r="AG25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:33">
@@ -6911,11 +7816,11 @@
         <v>36</v>
       </c>
       <c r="C26" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="1">
@@ -6932,11 +7837,11 @@
       <c r="N26" s="1"/>
       <c r="O26" s="2"/>
       <c r="P26" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S26" s="1">
         <v>0</v>
@@ -6949,7 +7854,7 @@
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" s="1">
@@ -6965,12 +7870,12 @@
       <c r="AC26" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD26" s="2">
+      <c r="AD26">
         <v>0</v>
       </c>
       <c r="AE26"/>
       <c r="AG26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:33">
@@ -6981,11 +7886,11 @@
         <v>37</v>
       </c>
       <c r="C27" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="1">
@@ -7002,11 +7907,11 @@
       <c r="N27" s="1"/>
       <c r="O27" s="2"/>
       <c r="P27" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S27" s="1">
         <v>0</v>
@@ -7019,7 +7924,7 @@
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" s="1">
@@ -7035,12 +7940,12 @@
       <c r="AC27" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD27" s="2">
+      <c r="AD27">
         <v>0</v>
       </c>
       <c r="AE27"/>
       <c r="AG27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:33">
@@ -7051,11 +7956,11 @@
         <v>38</v>
       </c>
       <c r="C28" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1">
@@ -7072,11 +7977,11 @@
       <c r="N28" s="1"/>
       <c r="O28" s="2"/>
       <c r="P28" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S28" s="1">
         <v>0</v>
@@ -7089,7 +7994,7 @@
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" s="1">
@@ -7105,12 +8010,12 @@
       <c r="AC28" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD28" s="2">
+      <c r="AD28">
         <v>0</v>
       </c>
       <c r="AE28"/>
       <c r="AG28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:33">
@@ -7121,11 +8026,11 @@
         <v>39</v>
       </c>
       <c r="C29" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1">
@@ -7142,11 +8047,11 @@
       <c r="N29" s="1"/>
       <c r="O29" s="2"/>
       <c r="P29" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S29" s="1">
         <v>0</v>
@@ -7159,7 +8064,7 @@
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" s="1">
@@ -7175,12 +8080,12 @@
       <c r="AC29" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD29" s="2">
+      <c r="AD29">
         <v>0</v>
       </c>
       <c r="AE29"/>
       <c r="AG29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:33">
@@ -7191,11 +8096,11 @@
         <v>40</v>
       </c>
       <c r="C30" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="1">
@@ -7212,11 +8117,11 @@
       <c r="N30" s="1"/>
       <c r="O30" s="2"/>
       <c r="P30" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S30" s="1">
         <v>0</v>
@@ -7229,7 +8134,7 @@
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" s="1">
@@ -7245,12 +8150,12 @@
       <c r="AC30" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD30" s="2">
+      <c r="AD30">
         <v>0</v>
       </c>
       <c r="AE30"/>
       <c r="AG30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:33">
@@ -7261,11 +8166,11 @@
         <v>41</v>
       </c>
       <c r="C31" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="1">
@@ -7282,11 +8187,11 @@
       <c r="N31" s="1"/>
       <c r="O31" s="2"/>
       <c r="P31" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S31" s="1">
         <v>0</v>
@@ -7299,7 +8204,7 @@
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" s="1">
@@ -7315,12 +8220,12 @@
       <c r="AC31" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD31" s="2">
+      <c r="AD31">
         <v>0</v>
       </c>
       <c r="AE31"/>
       <c r="AG31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:33">
@@ -7331,11 +8236,11 @@
         <v>42</v>
       </c>
       <c r="C32" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1">
@@ -7352,11 +8257,11 @@
       <c r="N32" s="1"/>
       <c r="O32" s="2"/>
       <c r="P32" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S32" s="1">
         <v>0</v>
@@ -7369,7 +8274,7 @@
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X32" s="2"/>
       <c r="Y32" s="1">
@@ -7385,12 +8290,12 @@
       <c r="AC32" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD32" s="2">
+      <c r="AD32">
         <v>0</v>
       </c>
       <c r="AE32"/>
       <c r="AG32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:33">
@@ -7401,11 +8306,11 @@
         <v>43</v>
       </c>
       <c r="C33" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="1">
@@ -7422,11 +8327,11 @@
       <c r="N33" s="1"/>
       <c r="O33" s="2"/>
       <c r="P33" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S33" s="1">
         <v>0</v>
@@ -7439,7 +8344,7 @@
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" s="1">
@@ -7455,12 +8360,12 @@
       <c r="AC33" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD33" s="2">
+      <c r="AD33">
         <v>0</v>
       </c>
       <c r="AE33"/>
       <c r="AG33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:33">
@@ -7471,11 +8376,11 @@
         <v>44</v>
       </c>
       <c r="C34" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="1">
@@ -7492,11 +8397,11 @@
       <c r="N34" s="1"/>
       <c r="O34" s="2"/>
       <c r="P34" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S34" s="1">
         <v>0</v>
@@ -7509,7 +8414,7 @@
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" s="1">
@@ -7525,12 +8430,12 @@
       <c r="AC34" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD34" s="2">
+      <c r="AD34">
         <v>0</v>
       </c>
       <c r="AE34"/>
       <c r="AG34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:33">
@@ -7541,11 +8446,11 @@
         <v>45</v>
       </c>
       <c r="C35" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="1">
@@ -7562,11 +8467,11 @@
       <c r="N35" s="1"/>
       <c r="O35" s="2"/>
       <c r="P35" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S35" s="1">
         <v>0</v>
@@ -7579,7 +8484,7 @@
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" s="1">
@@ -7595,12 +8500,12 @@
       <c r="AC35" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD35" s="2">
+      <c r="AD35">
         <v>0</v>
       </c>
       <c r="AE35"/>
       <c r="AG35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:33">
@@ -7611,11 +8516,11 @@
         <v>46</v>
       </c>
       <c r="C36" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="1">
@@ -7632,11 +8537,11 @@
       <c r="N36" s="1"/>
       <c r="O36" s="2"/>
       <c r="P36" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S36" s="1">
         <v>0</v>
@@ -7649,7 +8554,7 @@
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" s="1">
@@ -7665,12 +8570,12 @@
       <c r="AC36" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD36" s="2">
+      <c r="AD36">
         <v>0</v>
       </c>
       <c r="AE36"/>
       <c r="AG36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:33">
@@ -7681,11 +8586,11 @@
         <v>47</v>
       </c>
       <c r="C37" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="1">
@@ -7702,28 +8607,32 @@
       <c r="N37" s="1"/>
       <c r="O37" s="2"/>
       <c r="P37" s="6">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="Q37" s="2">
         <v>0.1</v>
       </c>
       <c r="R37" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="S37" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T37" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U37" s="6">
-        <v>0</v>
-      </c>
-      <c r="V37" s="2"/>
+        <v>100000</v>
+      </c>
+      <c r="V37" s="2">
+        <v>1</v>
+      </c>
       <c r="W37" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X37" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="X37" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y37" s="1">
         <v>0.0</v>
       </c>
@@ -7737,12 +8646,12 @@
       <c r="AC37" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD37" s="2">
+      <c r="AD37">
         <v>0</v>
       </c>
       <c r="AE37"/>
       <c r="AG37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:33">
@@ -7753,11 +8662,11 @@
         <v>48</v>
       </c>
       <c r="C38" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="1">
@@ -7774,28 +8683,32 @@
       <c r="N38" s="1"/>
       <c r="O38" s="2"/>
       <c r="P38" s="6">
-        <v>0</v>
+        <v>110000.0</v>
       </c>
       <c r="Q38" s="2">
         <v>0.1</v>
       </c>
       <c r="R38" s="1">
-        <v>0</v>
+        <v>110000.0</v>
       </c>
       <c r="S38" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T38" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U38" s="6">
-        <v>0</v>
-      </c>
-      <c r="V38" s="2"/>
+        <v>110000</v>
+      </c>
+      <c r="V38" s="2">
+        <v>1</v>
+      </c>
       <c r="W38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X38" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="X38" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y38" s="1">
         <v>0.0</v>
       </c>
@@ -7809,12 +8722,12 @@
       <c r="AC38" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AD38">
         <v>0</v>
       </c>
       <c r="AE38"/>
       <c r="AG38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:33">
@@ -7825,11 +8738,11 @@
         <v>49</v>
       </c>
       <c r="C39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="8">
@@ -7846,28 +8759,32 @@
       <c r="N39" s="8"/>
       <c r="O39" s="9"/>
       <c r="P39" s="8">
-        <v>0</v>
+        <v>121000.0</v>
       </c>
       <c r="Q39" s="9">
         <v>0.1</v>
       </c>
       <c r="R39" s="8">
-        <v>0</v>
+        <v>121000.0</v>
       </c>
       <c r="S39" s="8">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T39" s="8">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U39" s="8">
-        <v>0</v>
-      </c>
-      <c r="V39" s="9"/>
+        <v>121000</v>
+      </c>
+      <c r="V39" s="9">
+        <v>1</v>
+      </c>
       <c r="W39" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="X39" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="X39" s="9">
+        <v>0.01</v>
+      </c>
       <c r="Y39" s="8">
         <v>0.0</v>
       </c>
@@ -7881,12 +8798,13 @@
       <c r="AC39" s="8">
         <v>0.0</v>
       </c>
-      <c r="AD39" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE39"/>
+      <c r="AD39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
       <c r="AG39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:33">
@@ -7897,11 +8815,11 @@
         <v>50</v>
       </c>
       <c r="C40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11">
@@ -7918,28 +8836,32 @@
       <c r="N40" s="11"/>
       <c r="O40" s="12"/>
       <c r="P40" s="11">
-        <v>0</v>
+        <v>133100.0</v>
       </c>
       <c r="Q40" s="12">
         <v>0.1</v>
       </c>
       <c r="R40" s="11">
-        <v>0</v>
+        <v>133100.0</v>
       </c>
       <c r="S40" s="11">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T40" s="11">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U40" s="11">
-        <v>0</v>
-      </c>
-      <c r="V40" s="12"/>
+        <v>133100</v>
+      </c>
+      <c r="V40" s="12">
+        <v>1</v>
+      </c>
       <c r="W40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="X40" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="X40" s="12">
+        <v>0.01</v>
+      </c>
       <c r="Y40" s="11">
         <v>0.0</v>
       </c>
@@ -7953,10 +8875,11 @@
       <c r="AC40" s="11">
         <v>0.0</v>
       </c>
-      <c r="AD40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE40"/>
+      <c r="AD40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
       <c r="AG40" t="s">
         <v>47</v>
       </c>
@@ -7969,11 +8892,11 @@
         <v>51</v>
       </c>
       <c r="C41" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1">
@@ -7990,28 +8913,32 @@
       <c r="N41" s="1"/>
       <c r="O41" s="2"/>
       <c r="P41" s="6">
-        <v>0</v>
+        <v>146410.0</v>
       </c>
       <c r="Q41" s="2">
         <v>0.1</v>
       </c>
       <c r="R41" s="1">
-        <v>0</v>
+        <v>146410.0</v>
       </c>
       <c r="S41" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T41" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U41" s="6">
-        <v>0</v>
-      </c>
-      <c r="V41" s="2"/>
+        <v>146410</v>
+      </c>
+      <c r="V41" s="2">
+        <v>1</v>
+      </c>
       <c r="W41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X41" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="X41" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y41" s="1">
         <v>0.0</v>
       </c>
@@ -8025,12 +8952,12 @@
       <c r="AC41" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD41" s="2">
+      <c r="AD41">
         <v>0</v>
       </c>
       <c r="AE41"/>
       <c r="AG41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:33">
@@ -8041,11 +8968,11 @@
         <v>52</v>
       </c>
       <c r="C42" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1">
@@ -8062,28 +8989,32 @@
       <c r="N42" s="1"/>
       <c r="O42" s="2"/>
       <c r="P42" s="6">
-        <v>0</v>
+        <v>161051.0</v>
       </c>
       <c r="Q42" s="2">
         <v>0.1</v>
       </c>
       <c r="R42" s="1">
-        <v>0</v>
+        <v>161051.0</v>
       </c>
       <c r="S42" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T42" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U42" s="6">
-        <v>0</v>
-      </c>
-      <c r="V42" s="2"/>
+        <v>161051</v>
+      </c>
+      <c r="V42" s="2">
+        <v>1</v>
+      </c>
       <c r="W42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="X42" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y42" s="1">
         <v>0.0</v>
       </c>
@@ -8097,12 +9028,12 @@
       <c r="AC42" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD42" s="2">
+      <c r="AD42">
         <v>0</v>
       </c>
       <c r="AE42"/>
       <c r="AG42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:33">
@@ -8113,11 +9044,11 @@
         <v>53</v>
       </c>
       <c r="C43" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1">
@@ -8134,28 +9065,32 @@
       <c r="N43" s="1"/>
       <c r="O43" s="2"/>
       <c r="P43" s="6">
-        <v>0</v>
+        <v>177156.0</v>
       </c>
       <c r="Q43" s="2">
         <v>0.1</v>
       </c>
       <c r="R43" s="1">
-        <v>0</v>
+        <v>177156.0</v>
       </c>
       <c r="S43" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T43" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U43" s="6">
-        <v>0</v>
-      </c>
-      <c r="V43" s="2"/>
+        <v>177156</v>
+      </c>
+      <c r="V43" s="2">
+        <v>1</v>
+      </c>
       <c r="W43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="X43" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y43" s="1">
         <v>0.0</v>
       </c>
@@ -8169,12 +9104,12 @@
       <c r="AC43" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD43" s="2">
+      <c r="AD43">
         <v>0</v>
       </c>
       <c r="AE43"/>
       <c r="AG43" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:33">
@@ -8185,11 +9120,11 @@
         <v>54</v>
       </c>
       <c r="C44" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1">
@@ -8206,28 +9141,32 @@
       <c r="N44" s="1"/>
       <c r="O44" s="2"/>
       <c r="P44" s="6">
-        <v>0</v>
+        <v>194872.0</v>
       </c>
       <c r="Q44" s="2">
         <v>0.1</v>
       </c>
       <c r="R44" s="1">
-        <v>0</v>
+        <v>194872.0</v>
       </c>
       <c r="S44" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T44" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U44" s="6">
-        <v>0</v>
-      </c>
-      <c r="V44" s="2"/>
+        <v>194872</v>
+      </c>
+      <c r="V44" s="2">
+        <v>1</v>
+      </c>
       <c r="W44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="X44" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y44" s="1">
         <v>0.0</v>
       </c>
@@ -8241,12 +9180,12 @@
       <c r="AC44" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD44" s="2">
+      <c r="AD44">
         <v>0</v>
       </c>
       <c r="AE44"/>
       <c r="AG44" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:33">
@@ -8257,11 +9196,11 @@
         <v>55</v>
       </c>
       <c r="C45" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1">
@@ -8278,28 +9217,32 @@
       <c r="N45" s="1"/>
       <c r="O45" s="2"/>
       <c r="P45" s="6">
-        <v>0</v>
+        <v>214359.0</v>
       </c>
       <c r="Q45" s="2">
         <v>0.1</v>
       </c>
       <c r="R45" s="1">
-        <v>0</v>
+        <v>214359.0</v>
       </c>
       <c r="S45" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T45" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U45" s="6">
-        <v>0</v>
-      </c>
-      <c r="V45" s="2"/>
+        <v>214359</v>
+      </c>
+      <c r="V45" s="2">
+        <v>1</v>
+      </c>
       <c r="W45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X45" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="X45" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y45" s="1">
         <v>0.0</v>
       </c>
@@ -8313,12 +9256,12 @@
       <c r="AC45" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD45" s="2">
+      <c r="AD45">
         <v>0</v>
       </c>
       <c r="AE45"/>
       <c r="AG45" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:33">
@@ -8329,11 +9272,11 @@
         <v>56</v>
       </c>
       <c r="C46" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1">
@@ -8350,28 +9293,32 @@
       <c r="N46" s="1"/>
       <c r="O46" s="2"/>
       <c r="P46" s="6">
-        <v>0</v>
+        <v>235795.0</v>
       </c>
       <c r="Q46" s="2">
         <v>0.1</v>
       </c>
       <c r="R46" s="1">
-        <v>0</v>
+        <v>235795.0</v>
       </c>
       <c r="S46" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T46" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U46" s="6">
-        <v>0</v>
-      </c>
-      <c r="V46" s="2"/>
+        <v>235795</v>
+      </c>
+      <c r="V46" s="2">
+        <v>1</v>
+      </c>
       <c r="W46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X46" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="X46" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y46" s="1">
         <v>0.0</v>
       </c>
@@ -8385,12 +9332,12 @@
       <c r="AC46" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD46" s="2">
+      <c r="AD46">
         <v>0</v>
       </c>
       <c r="AE46"/>
       <c r="AG46" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:33">
@@ -8401,11 +9348,11 @@
         <v>57</v>
       </c>
       <c r="C47" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1">
@@ -8422,28 +9369,32 @@
       <c r="N47" s="1"/>
       <c r="O47" s="2"/>
       <c r="P47" s="6">
-        <v>0</v>
+        <v>259375.0</v>
       </c>
       <c r="Q47" s="2">
         <v>0.1</v>
       </c>
       <c r="R47" s="1">
-        <v>0</v>
+        <v>259375.0</v>
       </c>
       <c r="S47" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T47" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U47" s="6">
-        <v>0</v>
-      </c>
-      <c r="V47" s="2"/>
+        <v>259375</v>
+      </c>
+      <c r="V47" s="2">
+        <v>1</v>
+      </c>
       <c r="W47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X47" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="X47" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y47" s="1">
         <v>0.0</v>
       </c>
@@ -8457,12 +9408,12 @@
       <c r="AC47" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD47" s="2">
+      <c r="AD47">
         <v>0</v>
       </c>
       <c r="AE47"/>
       <c r="AG47" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:33">
@@ -8473,11 +9424,11 @@
         <v>58</v>
       </c>
       <c r="C48" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1">
@@ -8494,28 +9445,32 @@
       <c r="N48" s="1"/>
       <c r="O48" s="2"/>
       <c r="P48" s="6">
-        <v>0</v>
+        <v>285313.0</v>
       </c>
       <c r="Q48" s="2">
         <v>0.1</v>
       </c>
       <c r="R48" s="1">
-        <v>0</v>
+        <v>285313.0</v>
       </c>
       <c r="S48" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T48" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U48" s="6">
-        <v>0</v>
-      </c>
-      <c r="V48" s="2"/>
+        <v>285313</v>
+      </c>
+      <c r="V48" s="2">
+        <v>1</v>
+      </c>
       <c r="W48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X48" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="X48" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y48" s="1">
         <v>0.0</v>
       </c>
@@ -8529,12 +9484,12 @@
       <c r="AC48" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD48" s="2">
+      <c r="AD48">
         <v>0</v>
       </c>
       <c r="AE48"/>
       <c r="AG48" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:33">
@@ -8545,11 +9500,11 @@
         <v>59</v>
       </c>
       <c r="C49" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1">
@@ -8566,28 +9521,32 @@
       <c r="N49" s="1"/>
       <c r="O49" s="2"/>
       <c r="P49" s="6">
-        <v>0</v>
+        <v>313844.0</v>
       </c>
       <c r="Q49" s="2">
         <v>0.1</v>
       </c>
       <c r="R49" s="1">
-        <v>0</v>
+        <v>313844.0</v>
       </c>
       <c r="S49" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T49" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U49" s="6">
-        <v>0</v>
-      </c>
-      <c r="V49" s="2"/>
+        <v>313844</v>
+      </c>
+      <c r="V49" s="2">
+        <v>1</v>
+      </c>
       <c r="W49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X49" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="X49" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y49" s="1">
         <v>0.0</v>
       </c>
@@ -8601,12 +9560,12 @@
       <c r="AC49" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD49" s="2">
+      <c r="AD49">
         <v>0</v>
       </c>
       <c r="AE49"/>
       <c r="AG49" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:33">
@@ -8617,11 +9576,11 @@
         <v>60</v>
       </c>
       <c r="C50" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1">
@@ -8638,28 +9597,32 @@
       <c r="N50" s="1"/>
       <c r="O50" s="2"/>
       <c r="P50" s="6">
-        <v>0</v>
+        <v>345228.0</v>
       </c>
       <c r="Q50" s="2">
         <v>0.1</v>
       </c>
       <c r="R50" s="1">
-        <v>0</v>
+        <v>345228.0</v>
       </c>
       <c r="S50" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T50" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U50" s="6">
-        <v>0</v>
-      </c>
-      <c r="V50" s="2"/>
+        <v>345228</v>
+      </c>
+      <c r="V50" s="2">
+        <v>1</v>
+      </c>
       <c r="W50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X50" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="X50" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y50" s="1">
         <v>0.0</v>
       </c>
@@ -8673,12 +9636,12 @@
       <c r="AC50" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD50" s="2">
+      <c r="AD50">
         <v>0</v>
       </c>
       <c r="AE50"/>
       <c r="AG50" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:33">
@@ -8689,11 +9652,11 @@
         <v>61</v>
       </c>
       <c r="C51" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1">
@@ -8710,28 +9673,32 @@
       <c r="N51" s="1"/>
       <c r="O51" s="2"/>
       <c r="P51" s="6">
-        <v>0</v>
+        <v>379751.0</v>
       </c>
       <c r="Q51" s="2">
         <v>0.1</v>
       </c>
       <c r="R51" s="1">
-        <v>0</v>
+        <v>379751.0</v>
       </c>
       <c r="S51" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T51" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U51" s="6">
-        <v>0</v>
-      </c>
-      <c r="V51" s="2"/>
+        <v>379751</v>
+      </c>
+      <c r="V51" s="2">
+        <v>1</v>
+      </c>
       <c r="W51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X51" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="X51" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y51" s="1">
         <v>0.0</v>
       </c>
@@ -8745,12 +9712,12 @@
       <c r="AC51" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD51" s="2">
+      <c r="AD51">
         <v>0</v>
       </c>
       <c r="AE51"/>
       <c r="AG51" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:33">
@@ -8761,11 +9728,11 @@
         <v>62</v>
       </c>
       <c r="C52" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1">
@@ -8782,28 +9749,32 @@
       <c r="N52" s="1"/>
       <c r="O52" s="2"/>
       <c r="P52" s="6">
-        <v>0</v>
+        <v>417726.0</v>
       </c>
       <c r="Q52" s="2">
         <v>0.1</v>
       </c>
       <c r="R52" s="1">
-        <v>0</v>
+        <v>417726.0</v>
       </c>
       <c r="S52" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T52" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U52" s="6">
-        <v>0</v>
-      </c>
-      <c r="V52" s="2"/>
+        <v>417726</v>
+      </c>
+      <c r="V52" s="2">
+        <v>1</v>
+      </c>
       <c r="W52" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X52" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="X52" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y52" s="1">
         <v>0.0</v>
       </c>
@@ -8817,12 +9788,12 @@
       <c r="AC52" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD52" s="2">
+      <c r="AD52">
         <v>0</v>
       </c>
       <c r="AE52"/>
       <c r="AG52" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:33">
@@ -8833,11 +9804,11 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13">
@@ -8854,28 +9825,32 @@
       <c r="N53" s="13"/>
       <c r="O53" s="14"/>
       <c r="P53" s="13">
-        <v>0</v>
+        <v>459499.0</v>
       </c>
       <c r="Q53" s="14">
         <v>0.1</v>
       </c>
       <c r="R53" s="13">
-        <v>0</v>
+        <v>459499.0</v>
       </c>
       <c r="S53" s="13">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T53" s="13">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U53" s="13">
-        <v>0</v>
-      </c>
-      <c r="V53" s="14"/>
+        <v>459499</v>
+      </c>
+      <c r="V53" s="14">
+        <v>1</v>
+      </c>
       <c r="W53" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="X53" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="X53" s="14">
+        <v>0.01</v>
+      </c>
       <c r="Y53" s="13">
         <v>0.0</v>
       </c>
@@ -8889,12 +9864,13 @@
       <c r="AC53" s="13">
         <v>0.0</v>
       </c>
-      <c r="AD53" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE53"/>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
       <c r="AG53" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:33">
@@ -8905,11 +9881,11 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
@@ -8926,28 +9902,32 @@
       <c r="N54" s="1"/>
       <c r="O54" s="2"/>
       <c r="P54" s="6">
-        <v>0</v>
+        <v>505449.0</v>
       </c>
       <c r="Q54" s="2">
         <v>0.1</v>
       </c>
       <c r="R54" s="1">
-        <v>0</v>
+        <v>505449.0</v>
       </c>
       <c r="S54" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T54" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U54" s="6">
-        <v>0</v>
-      </c>
-      <c r="V54" s="2"/>
+        <v>505449</v>
+      </c>
+      <c r="V54" s="2">
+        <v>1</v>
+      </c>
       <c r="W54" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X54" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="X54" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y54" s="1">
         <v>0.0</v>
       </c>
@@ -8961,12 +9941,12 @@
       <c r="AC54" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD54" s="2">
+      <c r="AD54">
         <v>0</v>
       </c>
       <c r="AE54"/>
       <c r="AG54" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:33">
@@ -8977,11 +9957,11 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
@@ -8998,28 +9978,32 @@
       <c r="N55" s="1"/>
       <c r="O55" s="2"/>
       <c r="P55" s="6">
-        <v>0</v>
+        <v>555994.0</v>
       </c>
       <c r="Q55" s="2">
         <v>0.1</v>
       </c>
       <c r="R55" s="1">
-        <v>0</v>
+        <v>555994.0</v>
       </c>
       <c r="S55" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T55" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U55" s="6">
-        <v>0</v>
-      </c>
-      <c r="V55" s="2"/>
+        <v>555994</v>
+      </c>
+      <c r="V55" s="2">
+        <v>1</v>
+      </c>
       <c r="W55" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X55" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="X55" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y55" s="1">
         <v>0.0</v>
       </c>
@@ -9033,12 +10017,12 @@
       <c r="AC55" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD55" s="2">
+      <c r="AD55">
         <v>0</v>
       </c>
       <c r="AE55"/>
       <c r="AG55" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:33">
@@ -9049,11 +10033,11 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
@@ -9070,28 +10054,32 @@
       <c r="N56" s="1"/>
       <c r="O56" s="2"/>
       <c r="P56" s="6">
-        <v>0</v>
+        <v>611593.0</v>
       </c>
       <c r="Q56" s="2">
         <v>0.1</v>
       </c>
       <c r="R56" s="1">
-        <v>0</v>
+        <v>611593.0</v>
       </c>
       <c r="S56" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T56" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U56" s="6">
-        <v>0</v>
-      </c>
-      <c r="V56" s="2"/>
+        <v>611593</v>
+      </c>
+      <c r="V56" s="2">
+        <v>1</v>
+      </c>
       <c r="W56" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="X56" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y56" s="1">
         <v>0.0</v>
       </c>
@@ -9105,12 +10093,12 @@
       <c r="AC56" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD56" s="2">
+      <c r="AD56">
         <v>0</v>
       </c>
       <c r="AE56"/>
       <c r="AG56" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:33">
@@ -9121,11 +10109,11 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13">
@@ -9142,28 +10130,32 @@
       <c r="N57" s="13"/>
       <c r="O57" s="14"/>
       <c r="P57" s="13">
-        <v>0</v>
+        <v>672752.0</v>
       </c>
       <c r="Q57" s="14">
         <v>0.1</v>
       </c>
       <c r="R57" s="13">
-        <v>0</v>
+        <v>672752.0</v>
       </c>
       <c r="S57" s="13">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T57" s="13">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U57" s="13">
-        <v>0</v>
-      </c>
-      <c r="V57" s="14"/>
+        <v>672752</v>
+      </c>
+      <c r="V57" s="14">
+        <v>1</v>
+      </c>
       <c r="W57" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="X57" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="X57" s="14">
+        <v>0.01</v>
+      </c>
       <c r="Y57" s="13">
         <v>0.0</v>
       </c>
@@ -9177,12 +10169,13 @@
       <c r="AC57" s="13">
         <v>0.0</v>
       </c>
-      <c r="AD57" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE57"/>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="3"/>
       <c r="AG57" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:33">
@@ -9193,11 +10186,11 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
@@ -9214,28 +10207,32 @@
       <c r="N58" s="1"/>
       <c r="O58" s="2"/>
       <c r="P58" s="6">
-        <v>0</v>
+        <v>740027.0</v>
       </c>
       <c r="Q58" s="2">
         <v>0.1</v>
       </c>
       <c r="R58" s="1">
-        <v>0</v>
+        <v>740027.0</v>
       </c>
       <c r="S58" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T58" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U58" s="6">
-        <v>0</v>
-      </c>
-      <c r="V58" s="2"/>
+        <v>740027</v>
+      </c>
+      <c r="V58" s="2">
+        <v>1</v>
+      </c>
       <c r="W58" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X58" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="X58" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y58" s="1">
         <v>0.0</v>
       </c>
@@ -9249,12 +10246,12 @@
       <c r="AC58" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD58" s="2">
+      <c r="AD58">
         <v>0</v>
       </c>
       <c r="AE58"/>
       <c r="AG58" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:33">
@@ -9265,11 +10262,11 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
@@ -9286,28 +10283,32 @@
       <c r="N59" s="1"/>
       <c r="O59" s="2"/>
       <c r="P59" s="6">
-        <v>0</v>
+        <v>814030.0</v>
       </c>
       <c r="Q59" s="2">
         <v>0.1</v>
       </c>
       <c r="R59" s="1">
-        <v>0</v>
+        <v>814030.0</v>
       </c>
       <c r="S59" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T59" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U59" s="6">
-        <v>0</v>
-      </c>
-      <c r="V59" s="2"/>
+        <v>814030</v>
+      </c>
+      <c r="V59" s="2">
+        <v>1</v>
+      </c>
       <c r="W59" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X59" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="X59" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y59" s="1">
         <v>0.0</v>
       </c>
@@ -9321,12 +10322,12 @@
       <c r="AC59" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD59" s="2">
+      <c r="AD59">
         <v>0</v>
       </c>
       <c r="AE59"/>
       <c r="AG59" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:33">
@@ -9337,11 +10338,11 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
@@ -9358,28 +10359,32 @@
       <c r="N60" s="1"/>
       <c r="O60" s="2"/>
       <c r="P60" s="6">
-        <v>0</v>
+        <v>895433.0</v>
       </c>
       <c r="Q60" s="2">
         <v>0.1</v>
       </c>
       <c r="R60" s="1">
-        <v>0</v>
+        <v>895433.0</v>
       </c>
       <c r="S60" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T60" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U60" s="6">
-        <v>0</v>
-      </c>
-      <c r="V60" s="2"/>
+        <v>895433</v>
+      </c>
+      <c r="V60" s="2">
+        <v>1</v>
+      </c>
       <c r="W60" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X60" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="X60" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y60" s="1">
         <v>0.0</v>
       </c>
@@ -9393,12 +10398,12 @@
       <c r="AC60" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD60" s="2">
+      <c r="AD60">
         <v>0</v>
       </c>
       <c r="AE60"/>
       <c r="AG60" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:33">
@@ -9409,11 +10414,11 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
@@ -9430,28 +10435,32 @@
       <c r="N61" s="1"/>
       <c r="O61" s="2"/>
       <c r="P61" s="6">
-        <v>0</v>
+        <v>984976.0</v>
       </c>
       <c r="Q61" s="2">
         <v>0.1</v>
       </c>
       <c r="R61" s="1">
-        <v>0</v>
+        <v>984976.0</v>
       </c>
       <c r="S61" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T61" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U61" s="6">
-        <v>0</v>
-      </c>
-      <c r="V61" s="2"/>
+        <v>984976</v>
+      </c>
+      <c r="V61" s="2">
+        <v>1</v>
+      </c>
       <c r="W61" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X61" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="X61" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y61" s="1">
         <v>0.0</v>
       </c>
@@ -9465,12 +10474,12 @@
       <c r="AC61" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD61" s="2">
+      <c r="AD61">
         <v>0</v>
       </c>
       <c r="AE61"/>
       <c r="AG61" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:33">
@@ -9481,11 +10490,11 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
@@ -9502,28 +10511,32 @@
       <c r="N62" s="1"/>
       <c r="O62" s="2"/>
       <c r="P62" s="6">
-        <v>0</v>
+        <v>1083474.0</v>
       </c>
       <c r="Q62" s="2">
         <v>0.1</v>
       </c>
       <c r="R62" s="1">
-        <v>0</v>
+        <v>1083474.0</v>
       </c>
       <c r="S62" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T62" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U62" s="6">
-        <v>0</v>
-      </c>
-      <c r="V62" s="2"/>
+        <v>1083474</v>
+      </c>
+      <c r="V62" s="2">
+        <v>1</v>
+      </c>
       <c r="W62" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X62" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="X62" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y62" s="1">
         <v>0.0</v>
       </c>
@@ -9537,12 +10550,12 @@
       <c r="AC62" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD62" s="2">
+      <c r="AD62">
         <v>0</v>
       </c>
       <c r="AE62"/>
       <c r="AG62" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:33">
@@ -9553,11 +10566,11 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
@@ -9574,28 +10587,32 @@
       <c r="N63" s="1"/>
       <c r="O63" s="2"/>
       <c r="P63" s="6">
-        <v>0</v>
+        <v>1191821.0</v>
       </c>
       <c r="Q63" s="2">
         <v>0.1</v>
       </c>
       <c r="R63" s="1">
-        <v>0</v>
+        <v>1191821.0</v>
       </c>
       <c r="S63" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T63" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U63" s="6">
-        <v>0</v>
-      </c>
-      <c r="V63" s="2"/>
+        <v>1191821</v>
+      </c>
+      <c r="V63" s="2">
+        <v>1</v>
+      </c>
       <c r="W63" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X63" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="X63" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y63" s="1">
         <v>0.0</v>
       </c>
@@ -9609,12 +10626,12 @@
       <c r="AC63" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD63" s="2">
+      <c r="AD63">
         <v>0</v>
       </c>
       <c r="AE63"/>
       <c r="AG63" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:33">
@@ -9625,11 +10642,11 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
@@ -9646,28 +10663,32 @@
       <c r="N64" s="1"/>
       <c r="O64" s="2"/>
       <c r="P64" s="6">
-        <v>0</v>
+        <v>1311003.0</v>
       </c>
       <c r="Q64" s="2">
         <v>0.1</v>
       </c>
       <c r="R64" s="1">
-        <v>0</v>
+        <v>1311003.0</v>
       </c>
       <c r="S64" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T64" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U64" s="6">
-        <v>0</v>
-      </c>
-      <c r="V64" s="2"/>
+        <v>1311003</v>
+      </c>
+      <c r="V64" s="2">
+        <v>1</v>
+      </c>
       <c r="W64" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X64" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="X64" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y64" s="1">
         <v>0.0</v>
       </c>
@@ -9681,12 +10702,12 @@
       <c r="AC64" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD64" s="2">
+      <c r="AD64">
         <v>0</v>
       </c>
       <c r="AE64"/>
       <c r="AG64" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:33">
@@ -9697,11 +10718,11 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
@@ -9718,28 +10739,32 @@
       <c r="N65" s="1"/>
       <c r="O65" s="2"/>
       <c r="P65" s="6">
-        <v>0</v>
+        <v>1442103.0</v>
       </c>
       <c r="Q65" s="2">
         <v>0.1</v>
       </c>
       <c r="R65" s="1">
-        <v>0</v>
+        <v>1442103.0</v>
       </c>
       <c r="S65" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T65" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U65" s="6">
-        <v>0</v>
-      </c>
-      <c r="V65" s="2"/>
+        <v>1442103</v>
+      </c>
+      <c r="V65" s="2">
+        <v>1</v>
+      </c>
       <c r="W65" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X65" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="X65" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y65" s="1">
         <v>0.0</v>
       </c>
@@ -9753,12 +10778,12 @@
       <c r="AC65" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD65" s="2">
+      <c r="AD65">
         <v>0</v>
       </c>
       <c r="AE65"/>
       <c r="AG65" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:33">
@@ -9769,11 +10794,11 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
@@ -9790,28 +10815,32 @@
       <c r="N66" s="1"/>
       <c r="O66" s="2"/>
       <c r="P66" s="6">
-        <v>0</v>
+        <v>1586313.0</v>
       </c>
       <c r="Q66" s="2">
         <v>0.1</v>
       </c>
       <c r="R66" s="1">
-        <v>0</v>
+        <v>1586313.0</v>
       </c>
       <c r="S66" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T66" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U66" s="6">
-        <v>0</v>
-      </c>
-      <c r="V66" s="2"/>
+        <v>1586313</v>
+      </c>
+      <c r="V66" s="2">
+        <v>1</v>
+      </c>
       <c r="W66" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X66" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="X66" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y66" s="1">
         <v>0.0</v>
       </c>
@@ -9825,12 +10854,12 @@
       <c r="AC66" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD66" s="2">
+      <c r="AD66">
         <v>0</v>
       </c>
       <c r="AE66"/>
       <c r="AG66" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:33">
@@ -9841,11 +10870,11 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
@@ -9862,30 +10891,34 @@
       <c r="N67" s="1"/>
       <c r="O67" s="2"/>
       <c r="P67" s="6">
-        <v>0</v>
+        <v>1744944.0</v>
       </c>
       <c r="Q67" s="2">
         <v>0.1</v>
       </c>
       <c r="R67" s="1">
-        <v>0</v>
+        <v>1744944.0</v>
       </c>
       <c r="S67" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T67" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U67" s="6">
-        <v>0</v>
-      </c>
-      <c r="V67" s="2"/>
+        <v>1744944</v>
+      </c>
+      <c r="V67" s="2">
+        <v>1</v>
+      </c>
       <c r="W67" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X67" s="2"/>
+        <v>449.44</v>
+      </c>
+      <c r="X67" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y67" s="1">
-        <v>0.0</v>
+        <v>-449.44</v>
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
@@ -9897,12 +10930,12 @@
       <c r="AC67" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD67" s="2">
+      <c r="AD67">
         <v>0</v>
       </c>
       <c r="AE67"/>
       <c r="AG67" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:33">
@@ -9913,11 +10946,11 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
@@ -9934,30 +10967,34 @@
       <c r="N68" s="1"/>
       <c r="O68" s="2"/>
       <c r="P68" s="6">
-        <v>0</v>
+        <v>1919438.0</v>
       </c>
       <c r="Q68" s="2">
         <v>0.1</v>
       </c>
       <c r="R68" s="1">
-        <v>0</v>
+        <v>1919438.0</v>
       </c>
       <c r="S68" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T68" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U68" s="6">
-        <v>0</v>
-      </c>
-      <c r="V68" s="2"/>
+        <v>1919438</v>
+      </c>
+      <c r="V68" s="2">
+        <v>1</v>
+      </c>
       <c r="W68" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X68" s="2"/>
+        <v>2194.38</v>
+      </c>
+      <c r="X68" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y68" s="1">
-        <v>0.0</v>
+        <v>-2194.38</v>
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
@@ -9969,12 +11006,12 @@
       <c r="AC68" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD68" s="2">
+      <c r="AD68">
         <v>0</v>
       </c>
       <c r="AE68"/>
       <c r="AG68" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:33">
@@ -9985,11 +11022,11 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
@@ -10006,30 +11043,34 @@
       <c r="N69" s="1"/>
       <c r="O69" s="2"/>
       <c r="P69" s="6">
-        <v>0</v>
+        <v>2111382.0</v>
       </c>
       <c r="Q69" s="2">
         <v>0.1</v>
       </c>
       <c r="R69" s="1">
-        <v>0</v>
+        <v>2111382.0</v>
       </c>
       <c r="S69" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T69" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U69" s="6">
-        <v>0</v>
-      </c>
-      <c r="V69" s="2"/>
+        <v>2111382</v>
+      </c>
+      <c r="V69" s="2">
+        <v>1</v>
+      </c>
       <c r="W69" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X69" s="2"/>
+        <v>4113.82</v>
+      </c>
+      <c r="X69" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y69" s="1">
-        <v>0.0</v>
+        <v>-4113.82</v>
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
@@ -10041,12 +11082,12 @@
       <c r="AC69" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD69" s="2">
+      <c r="AD69">
         <v>0</v>
       </c>
       <c r="AE69"/>
       <c r="AG69" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:33">
@@ -10057,11 +11098,11 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
@@ -10078,30 +11119,34 @@
       <c r="N70" s="1"/>
       <c r="O70" s="2"/>
       <c r="P70" s="6">
-        <v>0</v>
+        <v>2322520.0</v>
       </c>
       <c r="Q70" s="2">
         <v>0.1</v>
       </c>
       <c r="R70" s="1">
-        <v>0</v>
+        <v>2322520.0</v>
       </c>
       <c r="S70" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T70" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U70" s="6">
-        <v>0</v>
-      </c>
-      <c r="V70" s="2"/>
+        <v>2322520</v>
+      </c>
+      <c r="V70" s="2">
+        <v>1</v>
+      </c>
       <c r="W70" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X70" s="2"/>
+        <v>6225.2</v>
+      </c>
+      <c r="X70" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y70" s="1">
-        <v>0.0</v>
+        <v>-6225.2</v>
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
@@ -10113,12 +11158,12 @@
       <c r="AC70" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD70" s="2">
+      <c r="AD70">
         <v>0</v>
       </c>
       <c r="AE70"/>
       <c r="AG70" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:33">
@@ -10129,11 +11174,11 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
@@ -10150,30 +11195,34 @@
       <c r="N71" s="1"/>
       <c r="O71" s="2"/>
       <c r="P71" s="6">
-        <v>0</v>
+        <v>2554772.0</v>
       </c>
       <c r="Q71" s="2">
         <v>0.1</v>
       </c>
       <c r="R71" s="1">
-        <v>0</v>
+        <v>2554772.0</v>
       </c>
       <c r="S71" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T71" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U71" s="6">
-        <v>0</v>
-      </c>
-      <c r="V71" s="2"/>
+        <v>2554772</v>
+      </c>
+      <c r="V71" s="2">
+        <v>1</v>
+      </c>
       <c r="W71" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X71" s="2"/>
+        <v>8547.72</v>
+      </c>
+      <c r="X71" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y71" s="1">
-        <v>0.0</v>
+        <v>-8547.72</v>
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
@@ -10185,12 +11234,12 @@
       <c r="AC71" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD71" s="2">
+      <c r="AD71">
         <v>0</v>
       </c>
       <c r="AE71"/>
       <c r="AG71" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:33">
@@ -10201,11 +11250,11 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5">
@@ -10222,30 +11271,34 @@
       <c r="N72" s="5"/>
       <c r="O72" s="16"/>
       <c r="P72" s="5">
-        <v>0</v>
+        <v>2810249.0</v>
       </c>
       <c r="Q72" s="16">
         <v>0.1</v>
       </c>
       <c r="R72" s="5">
-        <v>0</v>
+        <v>2810249.0</v>
       </c>
       <c r="S72" s="5">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T72" s="5">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="U72" s="5">
-        <v>0</v>
-      </c>
-      <c r="V72" s="16"/>
+        <v>2810249</v>
+      </c>
+      <c r="V72" s="16">
+        <v>1</v>
+      </c>
       <c r="W72" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="X72" s="16"/>
+        <v>11102.49</v>
+      </c>
+      <c r="X72" s="16">
+        <v>0.01</v>
+      </c>
       <c r="Y72" s="5">
-        <v>0.0</v>
+        <v>-11102.49</v>
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
@@ -10257,12 +11310,13 @@
       <c r="AC72" s="5">
         <v>0.0</v>
       </c>
-      <c r="AD72" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE72"/>
+      <c r="AD72" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="15"/>
+      <c r="AF72" s="15"/>
       <c r="AG72" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:33">
@@ -10294,7 +11348,6 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
-      <c r="AD73" s="2"/>
     </row>
     <row r="74" spans="1:33">
       <c r="B74" s="1"/>
@@ -10325,7 +11378,6 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
-      <c r="AD74" s="2"/>
     </row>
     <row r="75" spans="1:33">
       <c r="B75" s="1"/>
@@ -10356,7 +11408,6 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
-      <c r="AD75" s="2"/>
     </row>
     <row r="76" spans="1:33">
       <c r="B76" s="1"/>
@@ -10387,7 +11438,6 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
-      <c r="AD76" s="2"/>
     </row>
     <row r="77" spans="1:33">
       <c r="B77" s="1"/>
@@ -10418,7 +11468,6 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
-      <c r="AD77" s="2"/>
     </row>
     <row r="78" spans="1:33">
       <c r="B78" s="1"/>
@@ -10449,7 +11498,6 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
-      <c r="AD78" s="2"/>
     </row>
     <row r="79" spans="1:33">
       <c r="B79" s="1"/>
@@ -10480,7 +11528,6 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
-      <c r="AD79" s="2"/>
     </row>
     <row r="80" spans="1:33">
       <c r="B80" s="1"/>
@@ -10511,7 +11558,6 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
-      <c r="AD80" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -10534,14 +11580,574 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>2022</v>
+      </c>
+      <c r="B37">
+        <v>100.0</v>
+      </c>
+      <c r="C37">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>2023</v>
+      </c>
+      <c r="B38">
+        <v>100.0</v>
+      </c>
+      <c r="C38">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>2024</v>
+      </c>
+      <c r="B39">
+        <v>100.0</v>
+      </c>
+      <c r="C39">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>2025</v>
+      </c>
+      <c r="B40">
+        <v>100.0</v>
+      </c>
+      <c r="C40">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>2026</v>
+      </c>
+      <c r="B41">
+        <v>100.0</v>
+      </c>
+      <c r="C41">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>2027</v>
+      </c>
+      <c r="B42">
+        <v>100.0</v>
+      </c>
+      <c r="C42">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>2028</v>
+      </c>
+      <c r="B43">
+        <v>100.0</v>
+      </c>
+      <c r="C43">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>2029</v>
+      </c>
+      <c r="B44">
+        <v>100.0</v>
+      </c>
+      <c r="C44">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>2030</v>
+      </c>
+      <c r="B45">
+        <v>100.0</v>
+      </c>
+      <c r="C45">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>2031</v>
+      </c>
+      <c r="B46">
+        <v>100.0</v>
+      </c>
+      <c r="C46">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>2032</v>
+      </c>
+      <c r="B47">
+        <v>100.0</v>
+      </c>
+      <c r="C47">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>2033</v>
+      </c>
+      <c r="B48">
+        <v>100.0</v>
+      </c>
+      <c r="C48">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>2034</v>
+      </c>
+      <c r="B49">
+        <v>100.0</v>
+      </c>
+      <c r="C49">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>2035</v>
+      </c>
+      <c r="B50">
+        <v>100.0</v>
+      </c>
+      <c r="C50">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>2036</v>
+      </c>
+      <c r="B51">
+        <v>100.0</v>
+      </c>
+      <c r="C51">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>2037</v>
+      </c>
+      <c r="B52">
+        <v>100.0</v>
+      </c>
+      <c r="C52">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>2038</v>
+      </c>
+      <c r="B53">
+        <v>100.0</v>
+      </c>
+      <c r="C53">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>2039</v>
+      </c>
+      <c r="B54">
+        <v>100.0</v>
+      </c>
+      <c r="C54">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>2040</v>
+      </c>
+      <c r="B55">
+        <v>100.0</v>
+      </c>
+      <c r="C55">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>2041</v>
+      </c>
+      <c r="B56">
+        <v>100.0</v>
+      </c>
+      <c r="C56">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>2042</v>
+      </c>
+      <c r="B57">
+        <v>100.0</v>
+      </c>
+      <c r="C57">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>2043</v>
+      </c>
+      <c r="B58">
+        <v>100.0</v>
+      </c>
+      <c r="C58">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>2044</v>
+      </c>
+      <c r="B59">
+        <v>100.0</v>
+      </c>
+      <c r="C59">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>2045</v>
+      </c>
+      <c r="B60">
+        <v>100.0</v>
+      </c>
+      <c r="C60">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>2046</v>
+      </c>
+      <c r="B61">
+        <v>100.0</v>
+      </c>
+      <c r="C61">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>2047</v>
+      </c>
+      <c r="B62">
+        <v>100.0</v>
+      </c>
+      <c r="C62">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>2048</v>
+      </c>
+      <c r="B63">
+        <v>100.0</v>
+      </c>
+      <c r="C63">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>2049</v>
+      </c>
+      <c r="B64">
+        <v>100.0</v>
+      </c>
+      <c r="C64">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>2050</v>
+      </c>
+      <c r="B65">
+        <v>100.0</v>
+      </c>
+      <c r="C65">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>2051</v>
+      </c>
+      <c r="B66">
+        <v>100.0</v>
+      </c>
+      <c r="C66">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>2052</v>
+      </c>
+      <c r="B67">
+        <v>100.0</v>
+      </c>
+      <c r="C67">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>2053</v>
+      </c>
+      <c r="B68">
+        <v>100.0</v>
+      </c>
+      <c r="C68">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>2054</v>
+      </c>
+      <c r="B69">
+        <v>100.0</v>
+      </c>
+      <c r="C69">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>2055</v>
+      </c>
+      <c r="B70">
+        <v>100.0</v>
+      </c>
+      <c r="C70">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>2056</v>
+      </c>
+      <c r="B71">
+        <v>100.0</v>
+      </c>
+      <c r="C71">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>2057</v>
+      </c>
+      <c r="B72">
+        <v>100.0</v>
+      </c>
+      <c r="C72">
+        <v>100.0</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/tests/Feature/config/cash_tenpercent.xlsx
+++ b/tests/Feature/config/cash_tenpercent.xlsx
@@ -604,7 +604,7 @@
     <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="37.705" bestFit="true" customWidth="true" style="0"/>
@@ -3868,7 +3868,7 @@
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="1">
-        <v>0.0</v>
+        <v>2200.0</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="1">
@@ -3930,7 +3930,7 @@
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
       <c r="AI37" s="7">
-        <v>0.0</v>
+        <v>-2200.0</v>
       </c>
       <c r="AJ37" s="1">
         <v>0</v>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="1">
-        <v>0.0</v>
+        <v>2420.0</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="1">
@@ -4029,7 +4029,7 @@
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
       <c r="AI38" s="7">
-        <v>0.0</v>
+        <v>-2420.0</v>
       </c>
       <c r="AJ38" s="1">
         <v>0</v>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="9">
-        <v>0.0</v>
+        <v>2662.0</v>
       </c>
       <c r="H39" s="10"/>
       <c r="I39" s="9">
@@ -4128,10 +4128,10 @@
       <c r="AG39" s="10"/>
       <c r="AH39" s="10"/>
       <c r="AI39" s="9">
-        <v>0.0</v>
+        <v>-2662.0</v>
       </c>
       <c r="AJ39" s="9">
-        <v>0.0</v>
+        <v>-2662.0</v>
       </c>
       <c r="AK39" s="10"/>
       <c r="AL39" s="9">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="13">
-        <v>0.0</v>
+        <v>2928.0</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="13">
@@ -4227,10 +4227,10 @@
       <c r="AG40" s="14"/>
       <c r="AH40" s="14"/>
       <c r="AI40" s="13">
-        <v>0.0</v>
+        <v>-2928.0</v>
       </c>
       <c r="AJ40" s="13">
-        <v>0.0</v>
+        <v>-5590.0</v>
       </c>
       <c r="AK40" s="14"/>
       <c r="AL40" s="13">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1">
-        <v>0.0</v>
+        <v>3221.0</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="1">
@@ -4326,10 +4326,10 @@
       <c r="AG41" s="2"/>
       <c r="AH41" s="2"/>
       <c r="AI41" s="7">
-        <v>0.0</v>
+        <v>-3221.0</v>
       </c>
       <c r="AJ41" s="1">
-        <v>0.0</v>
+        <v>-8811.0</v>
       </c>
       <c r="AK41" s="2"/>
       <c r="AL41" s="1">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1">
-        <v>0.0</v>
+        <v>3543.0</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="1">
@@ -4425,10 +4425,10 @@
       <c r="AG42" s="2"/>
       <c r="AH42" s="2"/>
       <c r="AI42" s="7">
-        <v>0.0</v>
+        <v>-3543.0</v>
       </c>
       <c r="AJ42" s="1">
-        <v>0.0</v>
+        <v>-12354.0</v>
       </c>
       <c r="AK42" s="2"/>
       <c r="AL42" s="1">
@@ -4460,7 +4460,7 @@
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1">
-        <v>0.0</v>
+        <v>3898.0</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="1">
@@ -4524,10 +4524,10 @@
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
       <c r="AI43" s="7">
-        <v>0.0</v>
+        <v>-3898.0</v>
       </c>
       <c r="AJ43" s="1">
-        <v>0.0</v>
+        <v>-16252.0</v>
       </c>
       <c r="AK43" s="2"/>
       <c r="AL43" s="1">
@@ -4559,7 +4559,7 @@
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1">
-        <v>0.0</v>
+        <v>4287.0</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="1">
@@ -4623,10 +4623,10 @@
       <c r="AG44" s="2"/>
       <c r="AH44" s="2"/>
       <c r="AI44" s="7">
-        <v>0.0</v>
+        <v>-4287.0</v>
       </c>
       <c r="AJ44" s="1">
-        <v>0.0</v>
+        <v>-20539.0</v>
       </c>
       <c r="AK44" s="2"/>
       <c r="AL44" s="1">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1">
-        <v>0.0</v>
+        <v>4716.0</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="1">
@@ -4722,10 +4722,10 @@
       <c r="AG45" s="2"/>
       <c r="AH45" s="2"/>
       <c r="AI45" s="7">
-        <v>0.0</v>
+        <v>-4716.0</v>
       </c>
       <c r="AJ45" s="1">
-        <v>0.0</v>
+        <v>-25255.0</v>
       </c>
       <c r="AK45" s="2"/>
       <c r="AL45" s="1">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1">
-        <v>0.0</v>
+        <v>5188.0</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="1">
@@ -4821,10 +4821,10 @@
       <c r="AG46" s="2"/>
       <c r="AH46" s="2"/>
       <c r="AI46" s="7">
-        <v>0.0</v>
+        <v>-5188.0</v>
       </c>
       <c r="AJ46" s="1">
-        <v>0.0</v>
+        <v>-30443.0</v>
       </c>
       <c r="AK46" s="2"/>
       <c r="AL46" s="1">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1">
-        <v>0.0</v>
+        <v>5706.0</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="1">
@@ -4920,10 +4920,10 @@
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
       <c r="AI47" s="7">
-        <v>0.0</v>
+        <v>-5706.0</v>
       </c>
       <c r="AJ47" s="1">
-        <v>0.0</v>
+        <v>-36149.0</v>
       </c>
       <c r="AK47" s="2"/>
       <c r="AL47" s="1">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1">
-        <v>0.0</v>
+        <v>6277.0</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="1">
@@ -5019,10 +5019,10 @@
       <c r="AG48" s="2"/>
       <c r="AH48" s="2"/>
       <c r="AI48" s="7">
-        <v>0.0</v>
+        <v>-6277.0</v>
       </c>
       <c r="AJ48" s="1">
-        <v>0.0</v>
+        <v>-42426.0</v>
       </c>
       <c r="AK48" s="2"/>
       <c r="AL48" s="1">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1">
-        <v>0.0</v>
+        <v>6904.0</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="1">
@@ -5118,10 +5118,10 @@
       <c r="AG49" s="2"/>
       <c r="AH49" s="2"/>
       <c r="AI49" s="7">
-        <v>0.0</v>
+        <v>-6904.0</v>
       </c>
       <c r="AJ49" s="1">
-        <v>0.0</v>
+        <v>-49330.0</v>
       </c>
       <c r="AK49" s="2"/>
       <c r="AL49" s="1">
@@ -5153,7 +5153,7 @@
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1">
-        <v>0.0</v>
+        <v>7595.0</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="1">
@@ -5217,10 +5217,10 @@
       <c r="AG50" s="2"/>
       <c r="AH50" s="2"/>
       <c r="AI50" s="7">
-        <v>0.0</v>
+        <v>-7595.0</v>
       </c>
       <c r="AJ50" s="1">
-        <v>0.0</v>
+        <v>-56925.0</v>
       </c>
       <c r="AK50" s="2"/>
       <c r="AL50" s="1">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1">
-        <v>0.0</v>
+        <v>8355.0</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="1">
@@ -5316,10 +5316,10 @@
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
       <c r="AI51" s="7">
-        <v>0.0</v>
+        <v>-8355.0</v>
       </c>
       <c r="AJ51" s="1">
-        <v>0.0</v>
+        <v>-65280.0</v>
       </c>
       <c r="AK51" s="2"/>
       <c r="AL51" s="1">
@@ -5351,7 +5351,7 @@
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1">
-        <v>0.0</v>
+        <v>9190.0</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="1">
@@ -5415,10 +5415,10 @@
       <c r="AG52" s="2"/>
       <c r="AH52" s="2"/>
       <c r="AI52" s="7">
-        <v>0.0</v>
+        <v>-9190.0</v>
       </c>
       <c r="AJ52" s="1">
-        <v>0.0</v>
+        <v>-74470.0</v>
       </c>
       <c r="AK52" s="2"/>
       <c r="AL52" s="1">
@@ -5450,7 +5450,7 @@
       </c>
       <c r="F53" s="17"/>
       <c r="G53" s="16">
-        <v>0.0</v>
+        <v>10109.0</v>
       </c>
       <c r="H53" s="17"/>
       <c r="I53" s="16">
@@ -5514,10 +5514,10 @@
       <c r="AG53" s="17"/>
       <c r="AH53" s="17"/>
       <c r="AI53" s="16">
-        <v>0.0</v>
+        <v>-10109.0</v>
       </c>
       <c r="AJ53" s="16">
-        <v>0.0</v>
+        <v>-84579.0</v>
       </c>
       <c r="AK53" s="17"/>
       <c r="AL53" s="16">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
-        <v>0.0</v>
+        <v>11120.0</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="1">
@@ -5613,10 +5613,10 @@
       <c r="AG54" s="2"/>
       <c r="AH54" s="2"/>
       <c r="AI54" s="7">
-        <v>0.0</v>
+        <v>-11120.0</v>
       </c>
       <c r="AJ54" s="1">
-        <v>0.0</v>
+        <v>-95699.0</v>
       </c>
       <c r="AK54" s="2"/>
       <c r="AL54" s="1">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
-        <v>0.0</v>
+        <v>12232.0</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="1">
@@ -5712,10 +5712,10 @@
       <c r="AG55" s="2"/>
       <c r="AH55" s="2"/>
       <c r="AI55" s="7">
-        <v>0.0</v>
+        <v>-12232.0</v>
       </c>
       <c r="AJ55" s="1">
-        <v>0.0</v>
+        <v>-107931.0</v>
       </c>
       <c r="AK55" s="2"/>
       <c r="AL55" s="1">
@@ -5747,7 +5747,7 @@
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
-        <v>0.0</v>
+        <v>13455.0</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="1">
@@ -5811,10 +5811,10 @@
       <c r="AG56" s="2"/>
       <c r="AH56" s="2"/>
       <c r="AI56" s="7">
-        <v>0.0</v>
+        <v>-13455.0</v>
       </c>
       <c r="AJ56" s="1">
-        <v>0.0</v>
+        <v>-121386.0</v>
       </c>
       <c r="AK56" s="2"/>
       <c r="AL56" s="1">
@@ -5846,7 +5846,7 @@
       </c>
       <c r="F57" s="17"/>
       <c r="G57" s="16">
-        <v>0.0</v>
+        <v>14801.0</v>
       </c>
       <c r="H57" s="17"/>
       <c r="I57" s="16">
@@ -5910,10 +5910,10 @@
       <c r="AG57" s="17"/>
       <c r="AH57" s="17"/>
       <c r="AI57" s="16">
-        <v>0.0</v>
+        <v>-14801.0</v>
       </c>
       <c r="AJ57" s="16">
-        <v>0.0</v>
+        <v>-136187.0</v>
       </c>
       <c r="AK57" s="17"/>
       <c r="AL57" s="16">
@@ -5945,7 +5945,7 @@
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
-        <v>0.0</v>
+        <v>16281.0</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="1">
@@ -6009,10 +6009,10 @@
       <c r="AG58" s="2"/>
       <c r="AH58" s="2"/>
       <c r="AI58" s="7">
-        <v>0.0</v>
+        <v>-16281.0</v>
       </c>
       <c r="AJ58" s="1">
-        <v>0.0</v>
+        <v>-152468.0</v>
       </c>
       <c r="AK58" s="2"/>
       <c r="AL58" s="1">
@@ -6044,7 +6044,7 @@
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
-        <v>0.0</v>
+        <v>17909.0</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="1">
@@ -6108,10 +6108,10 @@
       <c r="AG59" s="2"/>
       <c r="AH59" s="2"/>
       <c r="AI59" s="7">
-        <v>0.0</v>
+        <v>-17909.0</v>
       </c>
       <c r="AJ59" s="1">
-        <v>0.0</v>
+        <v>-170377.0</v>
       </c>
       <c r="AK59" s="2"/>
       <c r="AL59" s="1">
@@ -6143,7 +6143,7 @@
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
-        <v>0.0</v>
+        <v>19699.0</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="1">
@@ -6207,10 +6207,10 @@
       <c r="AG60" s="2"/>
       <c r="AH60" s="2"/>
       <c r="AI60" s="7">
-        <v>0.0</v>
+        <v>-19699.0</v>
       </c>
       <c r="AJ60" s="1">
-        <v>0.0</v>
+        <v>-190076.0</v>
       </c>
       <c r="AK60" s="2"/>
       <c r="AL60" s="1">
@@ -6242,7 +6242,7 @@
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
-        <v>0.0</v>
+        <v>21670.0</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="1">
@@ -6306,10 +6306,10 @@
       <c r="AG61" s="2"/>
       <c r="AH61" s="2"/>
       <c r="AI61" s="7">
-        <v>0.0</v>
+        <v>-21670.0</v>
       </c>
       <c r="AJ61" s="1">
-        <v>0.0</v>
+        <v>-211746.0</v>
       </c>
       <c r="AK61" s="2"/>
       <c r="AL61" s="1">
@@ -6341,7 +6341,7 @@
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
-        <v>0.0</v>
+        <v>23836.0</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="1">
@@ -6405,10 +6405,10 @@
       <c r="AG62" s="2"/>
       <c r="AH62" s="2"/>
       <c r="AI62" s="7">
-        <v>0.0</v>
+        <v>-23836.0</v>
       </c>
       <c r="AJ62" s="1">
-        <v>0.0</v>
+        <v>-235582.0</v>
       </c>
       <c r="AK62" s="2"/>
       <c r="AL62" s="1">
@@ -6440,7 +6440,7 @@
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
-        <v>0.0</v>
+        <v>26220.0</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="1">
@@ -6504,10 +6504,10 @@
       <c r="AG63" s="2"/>
       <c r="AH63" s="2"/>
       <c r="AI63" s="7">
-        <v>0.0</v>
+        <v>-26220.0</v>
       </c>
       <c r="AJ63" s="1">
-        <v>0.0</v>
+        <v>-261802.0</v>
       </c>
       <c r="AK63" s="2"/>
       <c r="AL63" s="1">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
-        <v>0.0</v>
+        <v>28842.0</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="1">
@@ -6603,10 +6603,10 @@
       <c r="AG64" s="2"/>
       <c r="AH64" s="2"/>
       <c r="AI64" s="7">
-        <v>0.0</v>
+        <v>-28842.0</v>
       </c>
       <c r="AJ64" s="1">
-        <v>0.0</v>
+        <v>-290644.0</v>
       </c>
       <c r="AK64" s="2"/>
       <c r="AL64" s="1">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
-        <v>0.0</v>
+        <v>31726.0</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="1">
@@ -6702,10 +6702,10 @@
       <c r="AG65" s="2"/>
       <c r="AH65" s="2"/>
       <c r="AI65" s="7">
-        <v>0.0</v>
+        <v>-31726.0</v>
       </c>
       <c r="AJ65" s="1">
-        <v>0.0</v>
+        <v>-322370.0</v>
       </c>
       <c r="AK65" s="2"/>
       <c r="AL65" s="1">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
-        <v>0.0</v>
+        <v>34899.0</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="1">
@@ -6801,10 +6801,10 @@
       <c r="AG66" s="2"/>
       <c r="AH66" s="2"/>
       <c r="AI66" s="7">
-        <v>-449.44</v>
+        <v>-35348.44</v>
       </c>
       <c r="AJ66" s="1">
-        <v>-449.44</v>
+        <v>-357718.44</v>
       </c>
       <c r="AK66" s="2"/>
       <c r="AL66" s="1">
@@ -6836,7 +6836,7 @@
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
-        <v>0.0</v>
+        <v>38389.0</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="1">
@@ -6900,10 +6900,10 @@
       <c r="AG67" s="2"/>
       <c r="AH67" s="2"/>
       <c r="AI67" s="7">
-        <v>-2194.38</v>
+        <v>-40583.38</v>
       </c>
       <c r="AJ67" s="1">
-        <v>-2643.82</v>
+        <v>-398301.82</v>
       </c>
       <c r="AK67" s="2"/>
       <c r="AL67" s="1">
@@ -6935,7 +6935,7 @@
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
-        <v>0.0</v>
+        <v>42228.0</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="1">
@@ -6999,10 +6999,10 @@
       <c r="AG68" s="2"/>
       <c r="AH68" s="2"/>
       <c r="AI68" s="7">
-        <v>-4113.81</v>
+        <v>-46341.81</v>
       </c>
       <c r="AJ68" s="1">
-        <v>-6757.63</v>
+        <v>-444643.63</v>
       </c>
       <c r="AK68" s="2"/>
       <c r="AL68" s="1">
@@ -7034,7 +7034,7 @@
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
-        <v>0.0</v>
+        <v>46450.0</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="1">
@@ -7098,10 +7098,10 @@
       <c r="AG69" s="2"/>
       <c r="AH69" s="2"/>
       <c r="AI69" s="7">
-        <v>-6225.2</v>
+        <v>-52675.2</v>
       </c>
       <c r="AJ69" s="1">
-        <v>-12982.83</v>
+        <v>-497318.83</v>
       </c>
       <c r="AK69" s="2"/>
       <c r="AL69" s="1">
@@ -7133,7 +7133,7 @@
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
-        <v>0.0</v>
+        <v>51095.0</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="1">
@@ -7197,10 +7197,10 @@
       <c r="AG70" s="2"/>
       <c r="AH70" s="2"/>
       <c r="AI70" s="7">
-        <v>-8547.72</v>
+        <v>-59642.72</v>
       </c>
       <c r="AJ70" s="1">
-        <v>-21530.55</v>
+        <v>-556961.55</v>
       </c>
       <c r="AK70" s="2"/>
       <c r="AL70" s="1">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
-        <v>0.0</v>
+        <v>56205.0</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="1">
@@ -7296,10 +7296,10 @@
       <c r="AG71" s="2"/>
       <c r="AH71" s="2"/>
       <c r="AI71" s="7">
-        <v>-11102.49</v>
+        <v>-67307.49</v>
       </c>
       <c r="AJ71" s="1">
-        <v>-32633.04</v>
+        <v>-624269.04</v>
       </c>
       <c r="AK71" s="2"/>
       <c r="AL71" s="1">
@@ -7331,7 +7331,7 @@
       </c>
       <c r="F72" s="20"/>
       <c r="G72" s="6">
-        <v>0.0</v>
+        <v>61826.0</v>
       </c>
       <c r="H72" s="20"/>
       <c r="I72" s="6">
@@ -7395,10 +7395,10 @@
       <c r="AG72" s="20"/>
       <c r="AH72" s="20"/>
       <c r="AI72" s="6">
-        <v>-13912.73</v>
+        <v>-75738.73</v>
       </c>
       <c r="AJ72" s="6">
-        <v>-46545.77</v>
+        <v>-700007.77</v>
       </c>
       <c r="AK72" s="20"/>
       <c r="AL72" s="6">
@@ -7793,7 +7793,7 @@
     <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="37.705" bestFit="true" customWidth="true" style="0"/>
@@ -11057,7 +11057,7 @@
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="1">
-        <v>0.0</v>
+        <v>2200.0</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="1">
@@ -11119,7 +11119,7 @@
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
       <c r="AI37" s="7">
-        <v>0.0</v>
+        <v>-2200.0</v>
       </c>
       <c r="AJ37" s="1">
         <v>0</v>
@@ -11154,7 +11154,7 @@
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="1">
-        <v>0.0</v>
+        <v>2420.0</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="1">
@@ -11218,7 +11218,7 @@
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
       <c r="AI38" s="7">
-        <v>0.0</v>
+        <v>-2420.0</v>
       </c>
       <c r="AJ38" s="1">
         <v>0</v>
@@ -11253,7 +11253,7 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="9">
-        <v>0.0</v>
+        <v>2662.0</v>
       </c>
       <c r="H39" s="10"/>
       <c r="I39" s="9">
@@ -11317,10 +11317,10 @@
       <c r="AG39" s="10"/>
       <c r="AH39" s="10"/>
       <c r="AI39" s="9">
-        <v>0.0</v>
+        <v>-2662.0</v>
       </c>
       <c r="AJ39" s="9">
-        <v>0.0</v>
+        <v>-2662.0</v>
       </c>
       <c r="AK39" s="10"/>
       <c r="AL39" s="9">
@@ -11352,7 +11352,7 @@
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="13">
-        <v>0.0</v>
+        <v>2928.0</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="13">
@@ -11416,10 +11416,10 @@
       <c r="AG40" s="14"/>
       <c r="AH40" s="14"/>
       <c r="AI40" s="13">
-        <v>0.0</v>
+        <v>-2928.0</v>
       </c>
       <c r="AJ40" s="13">
-        <v>0.0</v>
+        <v>-5590.0</v>
       </c>
       <c r="AK40" s="14"/>
       <c r="AL40" s="13">
@@ -11451,7 +11451,7 @@
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1">
-        <v>0.0</v>
+        <v>3221.0</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="1">
@@ -11515,10 +11515,10 @@
       <c r="AG41" s="2"/>
       <c r="AH41" s="2"/>
       <c r="AI41" s="7">
-        <v>0.0</v>
+        <v>-3221.0</v>
       </c>
       <c r="AJ41" s="1">
-        <v>0.0</v>
+        <v>-8811.0</v>
       </c>
       <c r="AK41" s="2"/>
       <c r="AL41" s="1">
@@ -11550,7 +11550,7 @@
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1">
-        <v>0.0</v>
+        <v>3543.0</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="1">
@@ -11614,10 +11614,10 @@
       <c r="AG42" s="2"/>
       <c r="AH42" s="2"/>
       <c r="AI42" s="7">
-        <v>0.0</v>
+        <v>-3543.0</v>
       </c>
       <c r="AJ42" s="1">
-        <v>0.0</v>
+        <v>-12354.0</v>
       </c>
       <c r="AK42" s="2"/>
       <c r="AL42" s="1">
@@ -11649,7 +11649,7 @@
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1">
-        <v>0.0</v>
+        <v>3898.0</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="1">
@@ -11713,10 +11713,10 @@
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
       <c r="AI43" s="7">
-        <v>0.0</v>
+        <v>-3898.0</v>
       </c>
       <c r="AJ43" s="1">
-        <v>0.0</v>
+        <v>-16252.0</v>
       </c>
       <c r="AK43" s="2"/>
       <c r="AL43" s="1">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1">
-        <v>0.0</v>
+        <v>4287.0</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="1">
@@ -11812,10 +11812,10 @@
       <c r="AG44" s="2"/>
       <c r="AH44" s="2"/>
       <c r="AI44" s="7">
-        <v>0.0</v>
+        <v>-4287.0</v>
       </c>
       <c r="AJ44" s="1">
-        <v>0.0</v>
+        <v>-20539.0</v>
       </c>
       <c r="AK44" s="2"/>
       <c r="AL44" s="1">
@@ -11847,7 +11847,7 @@
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1">
-        <v>0.0</v>
+        <v>4716.0</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="1">
@@ -11911,10 +11911,10 @@
       <c r="AG45" s="2"/>
       <c r="AH45" s="2"/>
       <c r="AI45" s="7">
-        <v>0.0</v>
+        <v>-4716.0</v>
       </c>
       <c r="AJ45" s="1">
-        <v>0.0</v>
+        <v>-25255.0</v>
       </c>
       <c r="AK45" s="2"/>
       <c r="AL45" s="1">
@@ -11946,7 +11946,7 @@
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1">
-        <v>0.0</v>
+        <v>5188.0</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="1">
@@ -12010,10 +12010,10 @@
       <c r="AG46" s="2"/>
       <c r="AH46" s="2"/>
       <c r="AI46" s="7">
-        <v>0.0</v>
+        <v>-5188.0</v>
       </c>
       <c r="AJ46" s="1">
-        <v>0.0</v>
+        <v>-30443.0</v>
       </c>
       <c r="AK46" s="2"/>
       <c r="AL46" s="1">
@@ -12045,7 +12045,7 @@
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1">
-        <v>0.0</v>
+        <v>5706.0</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="1">
@@ -12109,10 +12109,10 @@
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
       <c r="AI47" s="7">
-        <v>0.0</v>
+        <v>-5706.0</v>
       </c>
       <c r="AJ47" s="1">
-        <v>0.0</v>
+        <v>-36149.0</v>
       </c>
       <c r="AK47" s="2"/>
       <c r="AL47" s="1">
@@ -12144,7 +12144,7 @@
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1">
-        <v>0.0</v>
+        <v>6277.0</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="1">
@@ -12208,10 +12208,10 @@
       <c r="AG48" s="2"/>
       <c r="AH48" s="2"/>
       <c r="AI48" s="7">
-        <v>0.0</v>
+        <v>-6277.0</v>
       </c>
       <c r="AJ48" s="1">
-        <v>0.0</v>
+        <v>-42426.0</v>
       </c>
       <c r="AK48" s="2"/>
       <c r="AL48" s="1">
@@ -12243,7 +12243,7 @@
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1">
-        <v>0.0</v>
+        <v>6904.0</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="1">
@@ -12307,10 +12307,10 @@
       <c r="AG49" s="2"/>
       <c r="AH49" s="2"/>
       <c r="AI49" s="7">
-        <v>0.0</v>
+        <v>-6904.0</v>
       </c>
       <c r="AJ49" s="1">
-        <v>0.0</v>
+        <v>-49330.0</v>
       </c>
       <c r="AK49" s="2"/>
       <c r="AL49" s="1">
@@ -12342,7 +12342,7 @@
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1">
-        <v>0.0</v>
+        <v>7595.0</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="1">
@@ -12406,10 +12406,10 @@
       <c r="AG50" s="2"/>
       <c r="AH50" s="2"/>
       <c r="AI50" s="7">
-        <v>0.0</v>
+        <v>-7595.0</v>
       </c>
       <c r="AJ50" s="1">
-        <v>0.0</v>
+        <v>-56925.0</v>
       </c>
       <c r="AK50" s="2"/>
       <c r="AL50" s="1">
@@ -12441,7 +12441,7 @@
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1">
-        <v>0.0</v>
+        <v>8355.0</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="1">
@@ -12505,10 +12505,10 @@
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
       <c r="AI51" s="7">
-        <v>0.0</v>
+        <v>-8355.0</v>
       </c>
       <c r="AJ51" s="1">
-        <v>0.0</v>
+        <v>-65280.0</v>
       </c>
       <c r="AK51" s="2"/>
       <c r="AL51" s="1">
@@ -12540,7 +12540,7 @@
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1">
-        <v>0.0</v>
+        <v>9190.0</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="1">
@@ -12604,10 +12604,10 @@
       <c r="AG52" s="2"/>
       <c r="AH52" s="2"/>
       <c r="AI52" s="7">
-        <v>0.0</v>
+        <v>-9190.0</v>
       </c>
       <c r="AJ52" s="1">
-        <v>0.0</v>
+        <v>-74470.0</v>
       </c>
       <c r="AK52" s="2"/>
       <c r="AL52" s="1">
@@ -12639,7 +12639,7 @@
       </c>
       <c r="F53" s="17"/>
       <c r="G53" s="16">
-        <v>0.0</v>
+        <v>10109.0</v>
       </c>
       <c r="H53" s="17"/>
       <c r="I53" s="16">
@@ -12703,10 +12703,10 @@
       <c r="AG53" s="17"/>
       <c r="AH53" s="17"/>
       <c r="AI53" s="16">
-        <v>0.0</v>
+        <v>-10109.0</v>
       </c>
       <c r="AJ53" s="16">
-        <v>0.0</v>
+        <v>-84579.0</v>
       </c>
       <c r="AK53" s="17"/>
       <c r="AL53" s="16">
@@ -12738,7 +12738,7 @@
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
-        <v>0.0</v>
+        <v>11120.0</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="1">
@@ -12802,10 +12802,10 @@
       <c r="AG54" s="2"/>
       <c r="AH54" s="2"/>
       <c r="AI54" s="7">
-        <v>0.0</v>
+        <v>-11120.0</v>
       </c>
       <c r="AJ54" s="1">
-        <v>0.0</v>
+        <v>-95699.0</v>
       </c>
       <c r="AK54" s="2"/>
       <c r="AL54" s="1">
@@ -12837,7 +12837,7 @@
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
-        <v>0.0</v>
+        <v>12232.0</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="1">
@@ -12901,10 +12901,10 @@
       <c r="AG55" s="2"/>
       <c r="AH55" s="2"/>
       <c r="AI55" s="7">
-        <v>0.0</v>
+        <v>-12232.0</v>
       </c>
       <c r="AJ55" s="1">
-        <v>0.0</v>
+        <v>-107931.0</v>
       </c>
       <c r="AK55" s="2"/>
       <c r="AL55" s="1">
@@ -12936,7 +12936,7 @@
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
-        <v>0.0</v>
+        <v>13455.0</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="1">
@@ -13000,10 +13000,10 @@
       <c r="AG56" s="2"/>
       <c r="AH56" s="2"/>
       <c r="AI56" s="7">
-        <v>0.0</v>
+        <v>-13455.0</v>
       </c>
       <c r="AJ56" s="1">
-        <v>0.0</v>
+        <v>-121386.0</v>
       </c>
       <c r="AK56" s="2"/>
       <c r="AL56" s="1">
@@ -13035,7 +13035,7 @@
       </c>
       <c r="F57" s="17"/>
       <c r="G57" s="16">
-        <v>0.0</v>
+        <v>14801.0</v>
       </c>
       <c r="H57" s="17"/>
       <c r="I57" s="16">
@@ -13099,10 +13099,10 @@
       <c r="AG57" s="17"/>
       <c r="AH57" s="17"/>
       <c r="AI57" s="16">
-        <v>0.0</v>
+        <v>-14801.0</v>
       </c>
       <c r="AJ57" s="16">
-        <v>0.0</v>
+        <v>-136187.0</v>
       </c>
       <c r="AK57" s="17"/>
       <c r="AL57" s="16">
@@ -13134,7 +13134,7 @@
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
-        <v>0.0</v>
+        <v>16281.0</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="1">
@@ -13198,10 +13198,10 @@
       <c r="AG58" s="2"/>
       <c r="AH58" s="2"/>
       <c r="AI58" s="7">
-        <v>0.0</v>
+        <v>-16281.0</v>
       </c>
       <c r="AJ58" s="1">
-        <v>0.0</v>
+        <v>-152468.0</v>
       </c>
       <c r="AK58" s="2"/>
       <c r="AL58" s="1">
@@ -13233,7 +13233,7 @@
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
-        <v>0.0</v>
+        <v>17909.0</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="1">
@@ -13297,10 +13297,10 @@
       <c r="AG59" s="2"/>
       <c r="AH59" s="2"/>
       <c r="AI59" s="7">
-        <v>0.0</v>
+        <v>-17909.0</v>
       </c>
       <c r="AJ59" s="1">
-        <v>0.0</v>
+        <v>-170377.0</v>
       </c>
       <c r="AK59" s="2"/>
       <c r="AL59" s="1">
@@ -13332,7 +13332,7 @@
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
-        <v>0.0</v>
+        <v>19699.0</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="1">
@@ -13396,10 +13396,10 @@
       <c r="AG60" s="2"/>
       <c r="AH60" s="2"/>
       <c r="AI60" s="7">
-        <v>0.0</v>
+        <v>-19699.0</v>
       </c>
       <c r="AJ60" s="1">
-        <v>0.0</v>
+        <v>-190076.0</v>
       </c>
       <c r="AK60" s="2"/>
       <c r="AL60" s="1">
@@ -13431,7 +13431,7 @@
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
-        <v>0.0</v>
+        <v>21670.0</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="1">
@@ -13495,10 +13495,10 @@
       <c r="AG61" s="2"/>
       <c r="AH61" s="2"/>
       <c r="AI61" s="7">
-        <v>0.0</v>
+        <v>-21670.0</v>
       </c>
       <c r="AJ61" s="1">
-        <v>0.0</v>
+        <v>-211746.0</v>
       </c>
       <c r="AK61" s="2"/>
       <c r="AL61" s="1">
@@ -13530,7 +13530,7 @@
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
-        <v>0.0</v>
+        <v>23836.0</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="1">
@@ -13594,10 +13594,10 @@
       <c r="AG62" s="2"/>
       <c r="AH62" s="2"/>
       <c r="AI62" s="7">
-        <v>0.0</v>
+        <v>-23836.0</v>
       </c>
       <c r="AJ62" s="1">
-        <v>0.0</v>
+        <v>-235582.0</v>
       </c>
       <c r="AK62" s="2"/>
       <c r="AL62" s="1">
@@ -13629,7 +13629,7 @@
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
-        <v>0.0</v>
+        <v>26220.0</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="1">
@@ -13693,10 +13693,10 @@
       <c r="AG63" s="2"/>
       <c r="AH63" s="2"/>
       <c r="AI63" s="7">
-        <v>0.0</v>
+        <v>-26220.0</v>
       </c>
       <c r="AJ63" s="1">
-        <v>0.0</v>
+        <v>-261802.0</v>
       </c>
       <c r="AK63" s="2"/>
       <c r="AL63" s="1">
@@ -13728,7 +13728,7 @@
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
-        <v>0.0</v>
+        <v>28842.0</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="1">
@@ -13792,10 +13792,10 @@
       <c r="AG64" s="2"/>
       <c r="AH64" s="2"/>
       <c r="AI64" s="7">
-        <v>0.0</v>
+        <v>-28842.0</v>
       </c>
       <c r="AJ64" s="1">
-        <v>0.0</v>
+        <v>-290644.0</v>
       </c>
       <c r="AK64" s="2"/>
       <c r="AL64" s="1">
@@ -13827,7 +13827,7 @@
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
-        <v>0.0</v>
+        <v>31726.0</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="1">
@@ -13891,10 +13891,10 @@
       <c r="AG65" s="2"/>
       <c r="AH65" s="2"/>
       <c r="AI65" s="7">
-        <v>0.0</v>
+        <v>-31726.0</v>
       </c>
       <c r="AJ65" s="1">
-        <v>0.0</v>
+        <v>-322370.0</v>
       </c>
       <c r="AK65" s="2"/>
       <c r="AL65" s="1">
@@ -13926,7 +13926,7 @@
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
-        <v>0.0</v>
+        <v>34899.0</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="1">
@@ -13990,10 +13990,10 @@
       <c r="AG66" s="2"/>
       <c r="AH66" s="2"/>
       <c r="AI66" s="7">
-        <v>-449.44</v>
+        <v>-35348.44</v>
       </c>
       <c r="AJ66" s="1">
-        <v>-449.44</v>
+        <v>-357718.44</v>
       </c>
       <c r="AK66" s="2"/>
       <c r="AL66" s="1">
@@ -14025,7 +14025,7 @@
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
-        <v>0.0</v>
+        <v>38389.0</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="1">
@@ -14089,10 +14089,10 @@
       <c r="AG67" s="2"/>
       <c r="AH67" s="2"/>
       <c r="AI67" s="7">
-        <v>-2194.38</v>
+        <v>-40583.38</v>
       </c>
       <c r="AJ67" s="1">
-        <v>-2643.82</v>
+        <v>-398301.82</v>
       </c>
       <c r="AK67" s="2"/>
       <c r="AL67" s="1">
@@ -14124,7 +14124,7 @@
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
-        <v>0.0</v>
+        <v>42228.0</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="1">
@@ -14188,10 +14188,10 @@
       <c r="AG68" s="2"/>
       <c r="AH68" s="2"/>
       <c r="AI68" s="7">
-        <v>-4113.81</v>
+        <v>-46341.81</v>
       </c>
       <c r="AJ68" s="1">
-        <v>-6757.63</v>
+        <v>-444643.63</v>
       </c>
       <c r="AK68" s="2"/>
       <c r="AL68" s="1">
@@ -14223,7 +14223,7 @@
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
-        <v>0.0</v>
+        <v>46450.0</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="1">
@@ -14287,10 +14287,10 @@
       <c r="AG69" s="2"/>
       <c r="AH69" s="2"/>
       <c r="AI69" s="7">
-        <v>-6225.2</v>
+        <v>-52675.2</v>
       </c>
       <c r="AJ69" s="1">
-        <v>-12982.83</v>
+        <v>-497318.83</v>
       </c>
       <c r="AK69" s="2"/>
       <c r="AL69" s="1">
@@ -14322,7 +14322,7 @@
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
-        <v>0.0</v>
+        <v>51095.0</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="1">
@@ -14386,10 +14386,10 @@
       <c r="AG70" s="2"/>
       <c r="AH70" s="2"/>
       <c r="AI70" s="7">
-        <v>-8547.72</v>
+        <v>-59642.72</v>
       </c>
       <c r="AJ70" s="1">
-        <v>-21530.55</v>
+        <v>-556961.55</v>
       </c>
       <c r="AK70" s="2"/>
       <c r="AL70" s="1">
@@ -14421,7 +14421,7 @@
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
-        <v>0.0</v>
+        <v>56205.0</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="1">
@@ -14485,10 +14485,10 @@
       <c r="AG71" s="2"/>
       <c r="AH71" s="2"/>
       <c r="AI71" s="7">
-        <v>-11102.49</v>
+        <v>-67307.49</v>
       </c>
       <c r="AJ71" s="1">
-        <v>-32633.04</v>
+        <v>-624269.04</v>
       </c>
       <c r="AK71" s="2"/>
       <c r="AL71" s="1">
@@ -14520,7 +14520,7 @@
       </c>
       <c r="F72" s="20"/>
       <c r="G72" s="6">
-        <v>0.0</v>
+        <v>61826.0</v>
       </c>
       <c r="H72" s="20"/>
       <c r="I72" s="6">
@@ -14584,10 +14584,10 @@
       <c r="AG72" s="20"/>
       <c r="AH72" s="20"/>
       <c r="AI72" s="6">
-        <v>-13912.73</v>
+        <v>-75738.73</v>
       </c>
       <c r="AJ72" s="6">
-        <v>-46545.77</v>
+        <v>-700007.77</v>
       </c>
       <c r="AK72" s="20"/>
       <c r="AL72" s="6">
@@ -19287,7 +19287,7 @@
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -21681,9 +21681,11 @@
       <c r="E37" s="6"/>
       <c r="F37" s="2"/>
       <c r="G37" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H37" s="2"/>
+        <v>2200.0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.22</v>
+      </c>
       <c r="I37" s="1"/>
       <c r="J37" s="2"/>
       <c r="K37" s="1"/>
@@ -21735,7 +21737,7 @@
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
       <c r="AI37" s="7">
-        <v>0.0</v>
+        <v>-2200.0</v>
       </c>
       <c r="AJ37" s="1"/>
       <c r="AK37" s="2"/>
@@ -21768,9 +21770,11 @@
       <c r="E38" s="6"/>
       <c r="F38" s="2"/>
       <c r="G38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H38" s="2"/>
+        <v>2420.0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.22</v>
+      </c>
       <c r="I38" s="1"/>
       <c r="J38" s="2"/>
       <c r="K38" s="1"/>
@@ -21822,7 +21826,7 @@
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
       <c r="AI38" s="7">
-        <v>0.0</v>
+        <v>-2420.0</v>
       </c>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="2"/>
@@ -21853,9 +21857,11 @@
       <c r="E39" s="9"/>
       <c r="F39" s="10"/>
       <c r="G39" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="H39" s="10"/>
+        <v>2662.0</v>
+      </c>
+      <c r="H39" s="10">
+        <v>0.22</v>
+      </c>
       <c r="I39" s="9"/>
       <c r="J39" s="10"/>
       <c r="K39" s="9"/>
@@ -21907,10 +21913,10 @@
       <c r="AG39" s="10"/>
       <c r="AH39" s="10"/>
       <c r="AI39" s="9">
-        <v>0.0</v>
+        <v>-2662.0</v>
       </c>
       <c r="AJ39" s="9">
-        <v>0.0</v>
+        <v>-2662.0</v>
       </c>
       <c r="AK39" s="10"/>
       <c r="AL39" s="9">
@@ -21940,9 +21946,11 @@
       <c r="E40" s="13"/>
       <c r="F40" s="14"/>
       <c r="G40" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="H40" s="14"/>
+        <v>2928.0</v>
+      </c>
+      <c r="H40" s="14">
+        <v>0.22</v>
+      </c>
       <c r="I40" s="13"/>
       <c r="J40" s="14"/>
       <c r="K40" s="13"/>
@@ -21994,10 +22002,10 @@
       <c r="AG40" s="14"/>
       <c r="AH40" s="14"/>
       <c r="AI40" s="13">
-        <v>0.0</v>
+        <v>-2928.0</v>
       </c>
       <c r="AJ40" s="13">
-        <v>0.0</v>
+        <v>-5590.0</v>
       </c>
       <c r="AK40" s="14"/>
       <c r="AL40" s="13">
@@ -22027,9 +22035,11 @@
       <c r="E41" s="6"/>
       <c r="F41" s="2"/>
       <c r="G41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H41" s="2"/>
+        <v>3221.0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.22</v>
+      </c>
       <c r="I41" s="1"/>
       <c r="J41" s="2"/>
       <c r="K41" s="1"/>
@@ -22081,10 +22091,10 @@
       <c r="AG41" s="2"/>
       <c r="AH41" s="2"/>
       <c r="AI41" s="7">
-        <v>0.0</v>
+        <v>-3221.0</v>
       </c>
       <c r="AJ41" s="1">
-        <v>0.0</v>
+        <v>-8811.0</v>
       </c>
       <c r="AK41" s="2"/>
       <c r="AL41" s="1">
@@ -22114,9 +22124,11 @@
       <c r="E42" s="6"/>
       <c r="F42" s="2"/>
       <c r="G42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H42" s="2"/>
+        <v>3543.0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.22</v>
+      </c>
       <c r="I42" s="1"/>
       <c r="J42" s="2"/>
       <c r="K42" s="1"/>
@@ -22168,10 +22180,10 @@
       <c r="AG42" s="2"/>
       <c r="AH42" s="2"/>
       <c r="AI42" s="7">
-        <v>0.0</v>
+        <v>-3543.0</v>
       </c>
       <c r="AJ42" s="1">
-        <v>0.0</v>
+        <v>-12354.0</v>
       </c>
       <c r="AK42" s="2"/>
       <c r="AL42" s="1">
@@ -22201,9 +22213,11 @@
       <c r="E43" s="6"/>
       <c r="F43" s="2"/>
       <c r="G43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H43" s="2"/>
+        <v>3898.0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0.22</v>
+      </c>
       <c r="I43" s="1"/>
       <c r="J43" s="2"/>
       <c r="K43" s="1"/>
@@ -22255,10 +22269,10 @@
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
       <c r="AI43" s="7">
-        <v>0.0</v>
+        <v>-3898.0</v>
       </c>
       <c r="AJ43" s="1">
-        <v>0.0</v>
+        <v>-16252.0</v>
       </c>
       <c r="AK43" s="2"/>
       <c r="AL43" s="1">
@@ -22288,9 +22302,11 @@
       <c r="E44" s="6"/>
       <c r="F44" s="2"/>
       <c r="G44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H44" s="2"/>
+        <v>4287.0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0.22</v>
+      </c>
       <c r="I44" s="1"/>
       <c r="J44" s="2"/>
       <c r="K44" s="1"/>
@@ -22342,10 +22358,10 @@
       <c r="AG44" s="2"/>
       <c r="AH44" s="2"/>
       <c r="AI44" s="7">
-        <v>0.0</v>
+        <v>-4287.0</v>
       </c>
       <c r="AJ44" s="1">
-        <v>0.0</v>
+        <v>-20539.0</v>
       </c>
       <c r="AK44" s="2"/>
       <c r="AL44" s="1">
@@ -22375,9 +22391,11 @@
       <c r="E45" s="6"/>
       <c r="F45" s="2"/>
       <c r="G45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H45" s="2"/>
+        <v>4716.0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0.22</v>
+      </c>
       <c r="I45" s="1"/>
       <c r="J45" s="2"/>
       <c r="K45" s="1"/>
@@ -22429,10 +22447,10 @@
       <c r="AG45" s="2"/>
       <c r="AH45" s="2"/>
       <c r="AI45" s="7">
-        <v>0.0</v>
+        <v>-4716.0</v>
       </c>
       <c r="AJ45" s="1">
-        <v>0.0</v>
+        <v>-25255.0</v>
       </c>
       <c r="AK45" s="2"/>
       <c r="AL45" s="1">
@@ -22462,9 +22480,11 @@
       <c r="E46" s="6"/>
       <c r="F46" s="2"/>
       <c r="G46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H46" s="2"/>
+        <v>5188.0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0.22</v>
+      </c>
       <c r="I46" s="1"/>
       <c r="J46" s="2"/>
       <c r="K46" s="1"/>
@@ -22516,10 +22536,10 @@
       <c r="AG46" s="2"/>
       <c r="AH46" s="2"/>
       <c r="AI46" s="7">
-        <v>0.0</v>
+        <v>-5188.0</v>
       </c>
       <c r="AJ46" s="1">
-        <v>0.0</v>
+        <v>-30443.0</v>
       </c>
       <c r="AK46" s="2"/>
       <c r="AL46" s="1">
@@ -22549,9 +22569,11 @@
       <c r="E47" s="6"/>
       <c r="F47" s="2"/>
       <c r="G47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H47" s="2"/>
+        <v>5706.0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0.22</v>
+      </c>
       <c r="I47" s="1"/>
       <c r="J47" s="2"/>
       <c r="K47" s="1"/>
@@ -22603,10 +22625,10 @@
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
       <c r="AI47" s="7">
-        <v>0.0</v>
+        <v>-5706.0</v>
       </c>
       <c r="AJ47" s="1">
-        <v>0.0</v>
+        <v>-36149.0</v>
       </c>
       <c r="AK47" s="2"/>
       <c r="AL47" s="1">
@@ -22636,9 +22658,11 @@
       <c r="E48" s="6"/>
       <c r="F48" s="2"/>
       <c r="G48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H48" s="2"/>
+        <v>6277.0</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0.22</v>
+      </c>
       <c r="I48" s="1"/>
       <c r="J48" s="2"/>
       <c r="K48" s="1"/>
@@ -22690,10 +22714,10 @@
       <c r="AG48" s="2"/>
       <c r="AH48" s="2"/>
       <c r="AI48" s="7">
-        <v>0.0</v>
+        <v>-6277.0</v>
       </c>
       <c r="AJ48" s="1">
-        <v>0.0</v>
+        <v>-42426.0</v>
       </c>
       <c r="AK48" s="2"/>
       <c r="AL48" s="1">
@@ -22723,9 +22747,11 @@
       <c r="E49" s="6"/>
       <c r="F49" s="2"/>
       <c r="G49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H49" s="2"/>
+        <v>6904.0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0.22</v>
+      </c>
       <c r="I49" s="1"/>
       <c r="J49" s="2"/>
       <c r="K49" s="1"/>
@@ -22777,10 +22803,10 @@
       <c r="AG49" s="2"/>
       <c r="AH49" s="2"/>
       <c r="AI49" s="7">
-        <v>0.0</v>
+        <v>-6904.0</v>
       </c>
       <c r="AJ49" s="1">
-        <v>0.0</v>
+        <v>-49330.0</v>
       </c>
       <c r="AK49" s="2"/>
       <c r="AL49" s="1">
@@ -22810,9 +22836,11 @@
       <c r="E50" s="6"/>
       <c r="F50" s="2"/>
       <c r="G50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H50" s="2"/>
+        <v>7595.0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0.22</v>
+      </c>
       <c r="I50" s="1"/>
       <c r="J50" s="2"/>
       <c r="K50" s="1"/>
@@ -22864,10 +22892,10 @@
       <c r="AG50" s="2"/>
       <c r="AH50" s="2"/>
       <c r="AI50" s="7">
-        <v>0.0</v>
+        <v>-7595.0</v>
       </c>
       <c r="AJ50" s="1">
-        <v>0.0</v>
+        <v>-56925.0</v>
       </c>
       <c r="AK50" s="2"/>
       <c r="AL50" s="1">
@@ -22897,9 +22925,11 @@
       <c r="E51" s="6"/>
       <c r="F51" s="2"/>
       <c r="G51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H51" s="2"/>
+        <v>8355.0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0.22</v>
+      </c>
       <c r="I51" s="1"/>
       <c r="J51" s="2"/>
       <c r="K51" s="1"/>
@@ -22951,10 +22981,10 @@
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
       <c r="AI51" s="7">
-        <v>0.0</v>
+        <v>-8355.0</v>
       </c>
       <c r="AJ51" s="1">
-        <v>0.0</v>
+        <v>-65280.0</v>
       </c>
       <c r="AK51" s="2"/>
       <c r="AL51" s="1">
@@ -22984,9 +23014,11 @@
       <c r="E52" s="6"/>
       <c r="F52" s="2"/>
       <c r="G52" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H52" s="2"/>
+        <v>9190.0</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0.22</v>
+      </c>
       <c r="I52" s="1"/>
       <c r="J52" s="2"/>
       <c r="K52" s="1"/>
@@ -23038,10 +23070,10 @@
       <c r="AG52" s="2"/>
       <c r="AH52" s="2"/>
       <c r="AI52" s="7">
-        <v>0.0</v>
+        <v>-9190.0</v>
       </c>
       <c r="AJ52" s="1">
-        <v>0.0</v>
+        <v>-74470.0</v>
       </c>
       <c r="AK52" s="2"/>
       <c r="AL52" s="1">
@@ -23071,9 +23103,11 @@
       <c r="E53" s="16"/>
       <c r="F53" s="17"/>
       <c r="G53" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="H53" s="17"/>
+        <v>10109.0</v>
+      </c>
+      <c r="H53" s="17">
+        <v>0.22</v>
+      </c>
       <c r="I53" s="16"/>
       <c r="J53" s="17"/>
       <c r="K53" s="16"/>
@@ -23125,10 +23159,10 @@
       <c r="AG53" s="17"/>
       <c r="AH53" s="17"/>
       <c r="AI53" s="16">
-        <v>0.0</v>
+        <v>-10109.0</v>
       </c>
       <c r="AJ53" s="16">
-        <v>0.0</v>
+        <v>-84579.0</v>
       </c>
       <c r="AK53" s="17"/>
       <c r="AL53" s="16">
@@ -23158,9 +23192,11 @@
       <c r="E54" s="6"/>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H54" s="2"/>
+        <v>11120.0</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0.22</v>
+      </c>
       <c r="I54" s="1"/>
       <c r="J54" s="2"/>
       <c r="K54" s="1"/>
@@ -23212,10 +23248,10 @@
       <c r="AG54" s="2"/>
       <c r="AH54" s="2"/>
       <c r="AI54" s="7">
-        <v>0.0</v>
+        <v>-11120.0</v>
       </c>
       <c r="AJ54" s="1">
-        <v>0.0</v>
+        <v>-95699.0</v>
       </c>
       <c r="AK54" s="2"/>
       <c r="AL54" s="1">
@@ -23245,9 +23281,11 @@
       <c r="E55" s="6"/>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H55" s="2"/>
+        <v>12232.0</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0.22</v>
+      </c>
       <c r="I55" s="1"/>
       <c r="J55" s="2"/>
       <c r="K55" s="1"/>
@@ -23299,10 +23337,10 @@
       <c r="AG55" s="2"/>
       <c r="AH55" s="2"/>
       <c r="AI55" s="7">
-        <v>0.0</v>
+        <v>-12232.0</v>
       </c>
       <c r="AJ55" s="1">
-        <v>0.0</v>
+        <v>-107931.0</v>
       </c>
       <c r="AK55" s="2"/>
       <c r="AL55" s="1">
@@ -23332,9 +23370,11 @@
       <c r="E56" s="6"/>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H56" s="2"/>
+        <v>13455.0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0.22</v>
+      </c>
       <c r="I56" s="1"/>
       <c r="J56" s="2"/>
       <c r="K56" s="1"/>
@@ -23386,10 +23426,10 @@
       <c r="AG56" s="2"/>
       <c r="AH56" s="2"/>
       <c r="AI56" s="7">
-        <v>0.0</v>
+        <v>-13455.0</v>
       </c>
       <c r="AJ56" s="1">
-        <v>0.0</v>
+        <v>-121386.0</v>
       </c>
       <c r="AK56" s="2"/>
       <c r="AL56" s="1">
@@ -23419,9 +23459,11 @@
       <c r="E57" s="16"/>
       <c r="F57" s="17"/>
       <c r="G57" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="H57" s="17"/>
+        <v>14801.0</v>
+      </c>
+      <c r="H57" s="17">
+        <v>0.22</v>
+      </c>
       <c r="I57" s="16"/>
       <c r="J57" s="17"/>
       <c r="K57" s="16"/>
@@ -23473,10 +23515,10 @@
       <c r="AG57" s="17"/>
       <c r="AH57" s="17"/>
       <c r="AI57" s="16">
-        <v>0.0</v>
+        <v>-14801.0</v>
       </c>
       <c r="AJ57" s="16">
-        <v>0.0</v>
+        <v>-136187.0</v>
       </c>
       <c r="AK57" s="17"/>
       <c r="AL57" s="16">
@@ -23506,9 +23548,11 @@
       <c r="E58" s="6"/>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H58" s="2"/>
+        <v>16281.0</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0.22</v>
+      </c>
       <c r="I58" s="1"/>
       <c r="J58" s="2"/>
       <c r="K58" s="1"/>
@@ -23560,10 +23604,10 @@
       <c r="AG58" s="2"/>
       <c r="AH58" s="2"/>
       <c r="AI58" s="7">
-        <v>0.0</v>
+        <v>-16281.0</v>
       </c>
       <c r="AJ58" s="1">
-        <v>0.0</v>
+        <v>-152468.0</v>
       </c>
       <c r="AK58" s="2"/>
       <c r="AL58" s="1">
@@ -23593,9 +23637,11 @@
       <c r="E59" s="6"/>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H59" s="2"/>
+        <v>17909.0</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0.22</v>
+      </c>
       <c r="I59" s="1"/>
       <c r="J59" s="2"/>
       <c r="K59" s="1"/>
@@ -23647,10 +23693,10 @@
       <c r="AG59" s="2"/>
       <c r="AH59" s="2"/>
       <c r="AI59" s="7">
-        <v>0.0</v>
+        <v>-17909.0</v>
       </c>
       <c r="AJ59" s="1">
-        <v>0.0</v>
+        <v>-170377.0</v>
       </c>
       <c r="AK59" s="2"/>
       <c r="AL59" s="1">
@@ -23680,9 +23726,11 @@
       <c r="E60" s="6"/>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H60" s="2"/>
+        <v>19699.0</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0.22</v>
+      </c>
       <c r="I60" s="1"/>
       <c r="J60" s="2"/>
       <c r="K60" s="1"/>
@@ -23734,10 +23782,10 @@
       <c r="AG60" s="2"/>
       <c r="AH60" s="2"/>
       <c r="AI60" s="7">
-        <v>0.0</v>
+        <v>-19699.0</v>
       </c>
       <c r="AJ60" s="1">
-        <v>0.0</v>
+        <v>-190076.0</v>
       </c>
       <c r="AK60" s="2"/>
       <c r="AL60" s="1">
@@ -23767,9 +23815,11 @@
       <c r="E61" s="6"/>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H61" s="2"/>
+        <v>21670.0</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0.22</v>
+      </c>
       <c r="I61" s="1"/>
       <c r="J61" s="2"/>
       <c r="K61" s="1"/>
@@ -23821,10 +23871,10 @@
       <c r="AG61" s="2"/>
       <c r="AH61" s="2"/>
       <c r="AI61" s="7">
-        <v>0.0</v>
+        <v>-21670.0</v>
       </c>
       <c r="AJ61" s="1">
-        <v>0.0</v>
+        <v>-211746.0</v>
       </c>
       <c r="AK61" s="2"/>
       <c r="AL61" s="1">
@@ -23854,9 +23904,11 @@
       <c r="E62" s="6"/>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H62" s="2"/>
+        <v>23836.0</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0.22</v>
+      </c>
       <c r="I62" s="1"/>
       <c r="J62" s="2"/>
       <c r="K62" s="1"/>
@@ -23908,10 +23960,10 @@
       <c r="AG62" s="2"/>
       <c r="AH62" s="2"/>
       <c r="AI62" s="7">
-        <v>0.0</v>
+        <v>-23836.0</v>
       </c>
       <c r="AJ62" s="1">
-        <v>0.0</v>
+        <v>-235582.0</v>
       </c>
       <c r="AK62" s="2"/>
       <c r="AL62" s="1">
@@ -23941,9 +23993,11 @@
       <c r="E63" s="6"/>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H63" s="2"/>
+        <v>26220.0</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0.22</v>
+      </c>
       <c r="I63" s="1"/>
       <c r="J63" s="2"/>
       <c r="K63" s="1"/>
@@ -23995,10 +24049,10 @@
       <c r="AG63" s="2"/>
       <c r="AH63" s="2"/>
       <c r="AI63" s="7">
-        <v>0.0</v>
+        <v>-26220.0</v>
       </c>
       <c r="AJ63" s="1">
-        <v>0.0</v>
+        <v>-261802.0</v>
       </c>
       <c r="AK63" s="2"/>
       <c r="AL63" s="1">
@@ -24028,9 +24082,11 @@
       <c r="E64" s="6"/>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H64" s="2"/>
+        <v>28842.0</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0.22</v>
+      </c>
       <c r="I64" s="1"/>
       <c r="J64" s="2"/>
       <c r="K64" s="1"/>
@@ -24082,10 +24138,10 @@
       <c r="AG64" s="2"/>
       <c r="AH64" s="2"/>
       <c r="AI64" s="7">
-        <v>0.0</v>
+        <v>-28842.0</v>
       </c>
       <c r="AJ64" s="1">
-        <v>0.0</v>
+        <v>-290644.0</v>
       </c>
       <c r="AK64" s="2"/>
       <c r="AL64" s="1">
@@ -24115,9 +24171,11 @@
       <c r="E65" s="6"/>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H65" s="2"/>
+        <v>31726.0</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0.22</v>
+      </c>
       <c r="I65" s="1"/>
       <c r="J65" s="2"/>
       <c r="K65" s="1"/>
@@ -24169,10 +24227,10 @@
       <c r="AG65" s="2"/>
       <c r="AH65" s="2"/>
       <c r="AI65" s="7">
-        <v>0.0</v>
+        <v>-31726.0</v>
       </c>
       <c r="AJ65" s="1">
-        <v>0.0</v>
+        <v>-322370.0</v>
       </c>
       <c r="AK65" s="2"/>
       <c r="AL65" s="1">
@@ -24202,9 +24260,11 @@
       <c r="E66" s="6"/>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H66" s="2"/>
+        <v>34899.0</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0.22</v>
+      </c>
       <c r="I66" s="1"/>
       <c r="J66" s="2"/>
       <c r="K66" s="1"/>
@@ -24258,10 +24318,10 @@
       <c r="AG66" s="2"/>
       <c r="AH66" s="2"/>
       <c r="AI66" s="7">
-        <v>-449.44</v>
+        <v>-35348.44</v>
       </c>
       <c r="AJ66" s="1">
-        <v>-449.44</v>
+        <v>-357718.44</v>
       </c>
       <c r="AK66" s="2"/>
       <c r="AL66" s="1">
@@ -24291,9 +24351,11 @@
       <c r="E67" s="6"/>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H67" s="2"/>
+        <v>38389.0</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0.22</v>
+      </c>
       <c r="I67" s="1"/>
       <c r="J67" s="2"/>
       <c r="K67" s="1"/>
@@ -24347,10 +24409,10 @@
       <c r="AG67" s="2"/>
       <c r="AH67" s="2"/>
       <c r="AI67" s="7">
-        <v>-2194.38</v>
+        <v>-40583.38</v>
       </c>
       <c r="AJ67" s="1">
-        <v>-2643.82</v>
+        <v>-398301.82</v>
       </c>
       <c r="AK67" s="2"/>
       <c r="AL67" s="1">
@@ -24380,9 +24442,11 @@
       <c r="E68" s="6"/>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H68" s="2"/>
+        <v>42228.0</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0.22</v>
+      </c>
       <c r="I68" s="1"/>
       <c r="J68" s="2"/>
       <c r="K68" s="1"/>
@@ -24436,10 +24500,10 @@
       <c r="AG68" s="2"/>
       <c r="AH68" s="2"/>
       <c r="AI68" s="7">
-        <v>-4113.81</v>
+        <v>-46341.81</v>
       </c>
       <c r="AJ68" s="1">
-        <v>-6757.63</v>
+        <v>-444643.63</v>
       </c>
       <c r="AK68" s="2"/>
       <c r="AL68" s="1">
@@ -24469,9 +24533,11 @@
       <c r="E69" s="6"/>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H69" s="2"/>
+        <v>46450.0</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0.22</v>
+      </c>
       <c r="I69" s="1"/>
       <c r="J69" s="2"/>
       <c r="K69" s="1"/>
@@ -24525,10 +24591,10 @@
       <c r="AG69" s="2"/>
       <c r="AH69" s="2"/>
       <c r="AI69" s="7">
-        <v>-6225.2</v>
+        <v>-52675.2</v>
       </c>
       <c r="AJ69" s="1">
-        <v>-12982.83</v>
+        <v>-497318.83</v>
       </c>
       <c r="AK69" s="2"/>
       <c r="AL69" s="1">
@@ -24558,9 +24624,11 @@
       <c r="E70" s="6"/>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H70" s="2"/>
+        <v>51095.0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0.22</v>
+      </c>
       <c r="I70" s="1"/>
       <c r="J70" s="2"/>
       <c r="K70" s="1"/>
@@ -24614,10 +24682,10 @@
       <c r="AG70" s="2"/>
       <c r="AH70" s="2"/>
       <c r="AI70" s="7">
-        <v>-8547.72</v>
+        <v>-59642.72</v>
       </c>
       <c r="AJ70" s="1">
-        <v>-21530.55</v>
+        <v>-556961.55</v>
       </c>
       <c r="AK70" s="2"/>
       <c r="AL70" s="1">
@@ -24647,9 +24715,11 @@
       <c r="E71" s="6"/>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H71" s="2"/>
+        <v>56205.0</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0.22</v>
+      </c>
       <c r="I71" s="1"/>
       <c r="J71" s="2"/>
       <c r="K71" s="1"/>
@@ -24703,10 +24773,10 @@
       <c r="AG71" s="2"/>
       <c r="AH71" s="2"/>
       <c r="AI71" s="7">
-        <v>-11102.49</v>
+        <v>-67307.49</v>
       </c>
       <c r="AJ71" s="1">
-        <v>-32633.04</v>
+        <v>-624269.04</v>
       </c>
       <c r="AK71" s="2"/>
       <c r="AL71" s="1">
@@ -24736,9 +24806,11 @@
       <c r="E72" s="6"/>
       <c r="F72" s="20"/>
       <c r="G72" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H72" s="20"/>
+        <v>61826.0</v>
+      </c>
+      <c r="H72" s="20">
+        <v>0.22</v>
+      </c>
       <c r="I72" s="6"/>
       <c r="J72" s="20"/>
       <c r="K72" s="6"/>
@@ -24792,10 +24864,10 @@
       <c r="AG72" s="20"/>
       <c r="AH72" s="20"/>
       <c r="AI72" s="6">
-        <v>-13912.73</v>
+        <v>-75738.73</v>
       </c>
       <c r="AJ72" s="6">
-        <v>-46545.77</v>
+        <v>-700007.77</v>
       </c>
       <c r="AK72" s="20"/>
       <c r="AL72" s="6">
